--- a/Planning_Sheet_Complete.xlsx
+++ b/Planning_Sheet_Complete.xlsx
@@ -80,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -96,6 +96,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +535,9 @@
           <t>Exposed AWS Access Keys</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr"/>
+      <c r="D3" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="E3" s="6" t="inlineStr"/>
     </row>
     <row r="4">
@@ -547,7 +552,9 @@
           <t>Firebase Cloud Messaging Token Exposed</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr"/>
+      <c r="D4" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
@@ -566,7 +573,9 @@
           <t>Google Maps API Key Hardcoded</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr"/>
+      <c r="D5" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
@@ -585,7 +594,9 @@
           <t>Permissive CORS Configuration</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr"/>
+      <c r="D6" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -604,7 +615,9 @@
           <t>Ineffective Rate Limiting</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr"/>
+      <c r="D7" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
@@ -623,7 +636,9 @@
           <t>Hardcoded MongoDB Credentials</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr"/>
+      <c r="D8" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
@@ -653,7 +668,9 @@
           <t>The EC2 instance i-01d9d8b30a74fae1b (mobile) is over provisioned.</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr"/>
+      <c r="D10" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
@@ -668,7 +685,9 @@
           <t>The EC2 instance i-0eb1bbd45ea19979e (live2) is over provisioned.</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr"/>
+      <c r="D11" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
@@ -683,7 +702,9 @@
           <t>The EC2 instance i-0e935890cfd61f7c0 (live) is mis-sized.</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr"/>
+      <c r="D12" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E12" s="6" t="inlineStr"/>
     </row>
     <row r="13">
@@ -698,7 +719,9 @@
           <t>The EC2 instance i-0520151b34ebc5ef6 (staging-mobile) is over provisioned.</t>
         </is>
       </c>
-      <c r="D13" s="6" t="inlineStr"/>
+      <c r="D13" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
@@ -713,7 +736,9 @@
           <t>The EC2 instance i-076e8ec11457150f6 (live2-front-staging) is over provisioned.</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr"/>
+      <c r="D14" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
@@ -728,7 +753,9 @@
           <t>The EC2 instance i-0d1ebd56f4b6b206c (recover-test) is over provisioned.</t>
         </is>
       </c>
-      <c r="D15" s="6" t="inlineStr"/>
+      <c r="D15" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
@@ -743,7 +770,9 @@
           <t>Over provisioned EC2 resources make up ~71.4% of October 2025 cost.</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr"/>
+      <c r="D16" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E16" s="6" t="inlineStr"/>
     </row>
     <row r="17">
@@ -758,7 +787,9 @@
           <t>Too many EBS volume snapshots are retained, including very old copies.</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr"/>
+      <c r="D17" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
@@ -773,7 +804,9 @@
           <t>No consistent time slot is defined between backups.</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr"/>
+      <c r="D18" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E18" s="6" t="inlineStr"/>
     </row>
     <row r="19">
@@ -788,7 +821,9 @@
           <t>Security risk: port 22 (SSH) is open to the world on most EC2 instances.</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr"/>
+      <c r="D19" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E19" s="6" t="inlineStr"/>
     </row>
     <row r="20">
@@ -803,7 +838,9 @@
           <t>Database port is exposed to the internet (0.0.0.0/0) for EC2 i-0e935890cfd61f7c0.</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr"/>
+      <c r="D20" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E20" s="6" t="inlineStr"/>
     </row>
     <row r="21">
@@ -818,7 +855,9 @@
           <t>CloudTrail management events disabled</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr"/>
+      <c r="D21" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E21" s="6" t="inlineStr"/>
     </row>
     <row r="22">
@@ -833,7 +872,9 @@
           <t>External resource sharing via IAM Access Analyzer findings</t>
         </is>
       </c>
-      <c r="D22" s="6" t="inlineStr"/>
+      <c r="D22" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E22" s="6" t="inlineStr"/>
     </row>
     <row r="23">
@@ -848,7 +889,9 @@
           <t>MFA and key rotation gaps in IAM users</t>
         </is>
       </c>
-      <c r="D23" s="6" t="inlineStr"/>
+      <c r="D23" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E23" s="6" t="inlineStr"/>
     </row>
     <row r="24">
@@ -863,7 +906,9 @@
           <t>Security Groups – Unrestricted Access</t>
         </is>
       </c>
-      <c r="D24" s="6" t="inlineStr"/>
+      <c r="D24" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E24" s="6" t="inlineStr"/>
     </row>
     <row r="25">
@@ -878,7 +923,9 @@
           <t>Application Load Balancer Security Group Misconfiguration</t>
         </is>
       </c>
-      <c r="D25" s="6" t="inlineStr"/>
+      <c r="D25" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E25" s="6" t="inlineStr"/>
     </row>
     <row r="26">
@@ -897,7 +944,9 @@
           <t>AWS Cost Optimization Hub is disabled.</t>
         </is>
       </c>
-      <c r="D26" s="6" t="inlineStr"/>
+      <c r="D26" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E26" s="6" t="inlineStr"/>
     </row>
     <row r="27">
@@ -912,7 +961,9 @@
           <t>Reserved Instance optimization warnings</t>
         </is>
       </c>
-      <c r="D27" s="6" t="inlineStr"/>
+      <c r="D27" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E27" s="6" t="inlineStr"/>
     </row>
     <row r="28">
@@ -931,7 +982,9 @@
           <t>HTTP port 80 is open, allowing unencrypted public access.</t>
         </is>
       </c>
-      <c r="D28" s="6" t="inlineStr"/>
+      <c r="D28" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E28" s="6" t="inlineStr"/>
     </row>
     <row r="29">
@@ -946,7 +999,9 @@
           <t>Low and inconsistent network activity indicates over-provisioned capacity.</t>
         </is>
       </c>
-      <c r="D29" s="6" t="inlineStr"/>
+      <c r="D29" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E29" s="6" t="inlineStr"/>
     </row>
     <row r="30">
@@ -961,7 +1016,9 @@
           <t>CPU utilization stays mostly under 10%.</t>
         </is>
       </c>
-      <c r="D30" s="6" t="inlineStr"/>
+      <c r="D30" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E30" s="6" t="inlineStr"/>
     </row>
     <row r="31">
@@ -976,7 +1033,9 @@
           <t>Memory usage averages below 10%.</t>
         </is>
       </c>
-      <c r="D31" s="6" t="inlineStr"/>
+      <c r="D31" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E31" s="6" t="inlineStr"/>
     </row>
     <row r="32">
@@ -991,7 +1050,9 @@
           <t>Very low read/write operations suggest over-provisioned storage.</t>
         </is>
       </c>
-      <c r="D32" s="6" t="inlineStr"/>
+      <c r="D32" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E32" s="6" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1006,7 +1067,9 @@
           <t>“Over-provisioned” status across all key metrics.</t>
         </is>
       </c>
-      <c r="D33" s="6" t="inlineStr"/>
+      <c r="D33" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E33" s="6" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1021,7 +1084,9 @@
           <t>Unmanaged EBS/RDS snapshot lifecycle</t>
         </is>
       </c>
-      <c r="D34" s="6" t="inlineStr"/>
+      <c r="D34" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E34" s="6" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1036,7 +1101,9 @@
           <t>Unassociated Elastic IP addresses</t>
         </is>
       </c>
-      <c r="D35" s="6" t="inlineStr"/>
+      <c r="D35" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E35" s="6" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1051,7 +1118,9 @@
           <t>Underutilized Amazon EBS volumes</t>
         </is>
       </c>
-      <c r="D36" s="6" t="inlineStr"/>
+      <c r="D36" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E36" s="6" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1066,7 +1135,9 @@
           <t>Missing Savings Plan / RI coverage</t>
         </is>
       </c>
-      <c r="D37" s="6" t="inlineStr"/>
+      <c r="D37" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E37" s="6" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1081,7 +1152,9 @@
           <t>Application Load Balancers serving HTTP health checks</t>
         </is>
       </c>
-      <c r="D38" s="6" t="inlineStr"/>
+      <c r="D38" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E38" s="6" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1111,7 +1184,9 @@
           <t>Missing Database Connection Pooling</t>
         </is>
       </c>
-      <c r="D40" s="6" t="inlineStr"/>
+      <c r="D40" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E40" s="6" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1126,7 +1201,9 @@
           <t>No Database Connection Pooling</t>
         </is>
       </c>
-      <c r="D41" s="6" t="inlineStr"/>
+      <c r="D41" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E41" s="6" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1145,7 +1222,9 @@
           <t>Missing Indexes on Frequently Queried Fields</t>
         </is>
       </c>
-      <c r="D42" s="6" t="inlineStr"/>
+      <c r="D42" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E42" s="6" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1160,7 +1239,9 @@
           <t>Missing Database Indexes</t>
         </is>
       </c>
-      <c r="D43" s="6" t="inlineStr"/>
+      <c r="D43" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E43" s="6" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1179,7 +1260,9 @@
           <t>N+1 Query in Account Serializer</t>
         </is>
       </c>
-      <c r="D44" s="6" t="inlineStr"/>
+      <c r="D44" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E44" s="6" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1194,7 +1277,9 @@
           <t>N+1 in Driver Transactions</t>
         </is>
       </c>
-      <c r="D45" s="6" t="inlineStr"/>
+      <c r="D45" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E45" s="6" t="inlineStr"/>
     </row>
     <row r="46">
@@ -1213,7 +1298,9 @@
           <t>Massive Aggregation Without Pagination</t>
         </is>
       </c>
-      <c r="D46" s="6" t="inlineStr"/>
+      <c r="D46" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E46" s="6" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1228,7 +1315,9 @@
           <t>Inefficient Driver Pagination</t>
         </is>
       </c>
-      <c r="D47" s="6" t="inlineStr"/>
+      <c r="D47" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E47" s="6" t="inlineStr"/>
     </row>
     <row r="48">
@@ -1243,7 +1332,9 @@
           <t>No Pagination in Trip History</t>
         </is>
       </c>
-      <c r="D48" s="6" t="inlineStr"/>
+      <c r="D48" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E48" s="6" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1273,7 +1364,9 @@
           <t>Excessive Token Lifetime</t>
         </is>
       </c>
-      <c r="D50" s="6" t="inlineStr"/>
+      <c r="D50" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E50" s="6" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1288,7 +1381,9 @@
           <t>Authentication Tokens in localStorage</t>
         </is>
       </c>
-      <c r="D51" s="6" t="inlineStr"/>
+      <c r="D51" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E51" s="6" t="inlineStr"/>
     </row>
     <row r="52">
@@ -1307,7 +1402,9 @@
           <t>No Multi-Factor Authentication</t>
         </is>
       </c>
-      <c r="D52" s="6" t="inlineStr"/>
+      <c r="D52" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E52" s="6" t="inlineStr"/>
     </row>
     <row r="53">
@@ -1326,7 +1423,9 @@
           <t>Excessive OTP Validity Period</t>
         </is>
       </c>
-      <c r="D53" s="6" t="inlineStr"/>
+      <c r="D53" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E53" s="6" t="inlineStr"/>
     </row>
     <row r="54">
@@ -1356,7 +1455,9 @@
           <t>Missing Caching Layer</t>
         </is>
       </c>
-      <c r="D55" s="6" t="inlineStr"/>
+      <c r="D55" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E55" s="6" t="inlineStr"/>
     </row>
     <row r="56">
@@ -1371,7 +1472,9 @@
           <t>Synchronous File Upload in Request</t>
         </is>
       </c>
-      <c r="D56" s="6" t="inlineStr"/>
+      <c r="D56" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E56" s="6" t="inlineStr"/>
     </row>
     <row r="57">
@@ -1386,7 +1489,9 @@
           <t>No Celery for Heavy Operations</t>
         </is>
       </c>
-      <c r="D57" s="6" t="inlineStr"/>
+      <c r="D57" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E57" s="6" t="inlineStr"/>
     </row>
     <row r="58">
@@ -1401,7 +1506,9 @@
           <t>Excel Export Loads All Data Into Memory</t>
         </is>
       </c>
-      <c r="D58" s="6" t="inlineStr"/>
+      <c r="D58" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E58" s="6" t="inlineStr"/>
     </row>
     <row r="59">
@@ -1416,7 +1523,9 @@
           <t>Missing Query Optimization (only/defer)</t>
         </is>
       </c>
-      <c r="D59" s="6" t="inlineStr"/>
+      <c r="D59" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E59" s="6" t="inlineStr"/>
     </row>
     <row r="60">
@@ -1431,7 +1540,9 @@
           <t>Inefficient Nested Loops Over QuerySets</t>
         </is>
       </c>
-      <c r="D60" s="6" t="inlineStr"/>
+      <c r="D60" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E60" s="6" t="inlineStr"/>
     </row>
     <row r="61">
@@ -1446,7 +1557,9 @@
           <t>Complex Aggregation Pipeline</t>
         </is>
       </c>
-      <c r="D61" s="6" t="inlineStr"/>
+      <c r="D61" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E61" s="6" t="inlineStr"/>
     </row>
     <row r="62">
@@ -1461,7 +1574,9 @@
           <t>Unoptimized Trip Export Pipeline</t>
         </is>
       </c>
-      <c r="D62" s="6" t="inlineStr"/>
+      <c r="D62" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E62" s="6" t="inlineStr"/>
     </row>
     <row r="63">
@@ -1476,7 +1591,9 @@
           <t>Synchronous SMS Sending</t>
         </is>
       </c>
-      <c r="D63" s="6" t="inlineStr"/>
+      <c r="D63" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E63" s="6" t="inlineStr"/>
     </row>
     <row r="64">
@@ -1491,7 +1608,9 @@
           <t>Synchronous Firebase Operations</t>
         </is>
       </c>
-      <c r="D64" s="6" t="inlineStr"/>
+      <c r="D64" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E64" s="6" t="inlineStr"/>
     </row>
     <row r="65">
@@ -1510,7 +1629,9 @@
           <t>Blocking Synchronous Trip Assignment Loop</t>
         </is>
       </c>
-      <c r="D65" s="6" t="inlineStr"/>
+      <c r="D65" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E65" s="6" t="inlineStr"/>
     </row>
     <row r="66">
@@ -1525,7 +1646,9 @@
           <t>Inefficient Driver Geographic Search</t>
         </is>
       </c>
-      <c r="D66" s="6" t="inlineStr"/>
+      <c r="D66" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E66" s="6" t="inlineStr"/>
     </row>
     <row r="67">
@@ -1540,7 +1663,9 @@
           <t>Duplicate FirebaseStorageProvider</t>
         </is>
       </c>
-      <c r="D67" s="6" t="inlineStr"/>
+      <c r="D67" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E67" s="6" t="inlineStr"/>
     </row>
     <row r="68">
@@ -1555,7 +1680,9 @@
           <t>Inefficient Token Validation</t>
         </is>
       </c>
-      <c r="D68" s="6" t="inlineStr"/>
+      <c r="D68" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E68" s="6" t="inlineStr"/>
     </row>
     <row r="69">
@@ -1570,7 +1697,9 @@
           <t>Synchronous Firebase in Request Path</t>
         </is>
       </c>
-      <c r="D69" s="6" t="inlineStr"/>
+      <c r="D69" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E69" s="6" t="inlineStr"/>
     </row>
     <row r="70">
@@ -1585,7 +1714,9 @@
           <t>Cache Pollution with Driver Attempts</t>
         </is>
       </c>
-      <c r="D70" s="6" t="inlineStr"/>
+      <c r="D70" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E70" s="6" t="inlineStr"/>
     </row>
     <row r="71">
@@ -1600,7 +1731,9 @@
           <t>Missing Redis Cache Configuration</t>
         </is>
       </c>
-      <c r="D71" s="6" t="inlineStr"/>
+      <c r="D71" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E71" s="6" t="inlineStr"/>
     </row>
     <row r="72">
@@ -1619,7 +1752,9 @@
           <t>Insufficient Code Splitting</t>
         </is>
       </c>
-      <c r="D72" s="6" t="inlineStr"/>
+      <c r="D72" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E72" s="6" t="inlineStr"/>
     </row>
     <row r="73">
@@ -1634,7 +1769,9 @@
           <t>Heavy Dependencies</t>
         </is>
       </c>
-      <c r="D73" s="6" t="inlineStr"/>
+      <c r="D73" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E73" s="6" t="inlineStr"/>
     </row>
     <row r="74">
@@ -1649,7 +1786,9 @@
           <t>No Lazy Loading for Routes</t>
         </is>
       </c>
-      <c r="D74" s="6" t="inlineStr"/>
+      <c r="D74" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E74" s="6" t="inlineStr"/>
     </row>
     <row r="75">
@@ -1664,7 +1803,9 @@
           <t>Large MUI Bundle Without Tree-Shaking</t>
         </is>
       </c>
-      <c r="D75" s="6" t="inlineStr"/>
+      <c r="D75" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E75" s="6" t="inlineStr"/>
     </row>
     <row r="76">
@@ -1679,7 +1820,9 @@
           <t>Excessive useState/useEffect Usage</t>
         </is>
       </c>
-      <c r="D76" s="6" t="inlineStr"/>
+      <c r="D76" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E76" s="6" t="inlineStr"/>
     </row>
     <row r="77">
@@ -1694,7 +1837,9 @@
           <t>Missing React.memo</t>
         </is>
       </c>
-      <c r="D77" s="6" t="inlineStr"/>
+      <c r="D77" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E77" s="6" t="inlineStr"/>
     </row>
     <row r="78">
@@ -1709,7 +1854,9 @@
           <t>Context Providers Without Memoization</t>
         </is>
       </c>
-      <c r="D78" s="6" t="inlineStr"/>
+      <c r="D78" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E78" s="6" t="inlineStr"/>
     </row>
     <row r="79">
@@ -1724,7 +1871,9 @@
           <t>No Request Deduplication</t>
         </is>
       </c>
-      <c r="D79" s="6" t="inlineStr"/>
+      <c r="D79" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E79" s="6" t="inlineStr"/>
     </row>
     <row r="80">
@@ -1739,7 +1888,9 @@
           <t>Large DataGrid Without Virtualization</t>
         </is>
       </c>
-      <c r="D80" s="6" t="inlineStr"/>
+      <c r="D80" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E80" s="6" t="inlineStr"/>
     </row>
     <row r="81">
@@ -1754,7 +1905,9 @@
           <t>No Build-Time Env Optimization</t>
         </is>
       </c>
-      <c r="D81" s="6" t="inlineStr"/>
+      <c r="D81" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E81" s="6" t="inlineStr"/>
     </row>
     <row r="82">
@@ -1773,7 +1926,9 @@
           <t>Too Many Root Providers</t>
         </is>
       </c>
-      <c r="D82" s="6" t="inlineStr"/>
+      <c r="D82" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E82" s="6" t="inlineStr"/>
     </row>
     <row r="83">
@@ -1788,7 +1943,9 @@
           <t>Duplicate FirebaseStorageProvider</t>
         </is>
       </c>
-      <c r="D83" s="6" t="inlineStr"/>
+      <c r="D83" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E83" s="6" t="inlineStr"/>
     </row>
     <row r="84">
@@ -1803,7 +1960,9 @@
           <t>Missing const Constructors</t>
         </is>
       </c>
-      <c r="D84" s="6" t="inlineStr"/>
+      <c r="D84" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E84" s="6" t="inlineStr"/>
     </row>
     <row r="85">
@@ -1818,7 +1977,9 @@
           <t>No Image Caching Configuration</t>
         </is>
       </c>
-      <c r="D85" s="6" t="inlineStr"/>
+      <c r="D85" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E85" s="6" t="inlineStr"/>
     </row>
     <row r="86">
@@ -1833,7 +1994,9 @@
           <t>No Lazy Loading of Maps</t>
         </is>
       </c>
-      <c r="D86" s="6" t="inlineStr"/>
+      <c r="D86" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E86" s="6" t="inlineStr"/>
     </row>
     <row r="87">
@@ -1848,7 +2011,9 @@
           <t>Provider Without Selective Rebuilds</t>
         </is>
       </c>
-      <c r="D87" s="6" t="inlineStr"/>
+      <c r="D87" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E87" s="6" t="inlineStr"/>
     </row>
     <row r="88">
@@ -1863,7 +2028,9 @@
           <t>No HTTP Client Configuration</t>
         </is>
       </c>
-      <c r="D88" s="6" t="inlineStr"/>
+      <c r="D88" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E88" s="6" t="inlineStr"/>
     </row>
     <row r="89">
@@ -1882,7 +2049,9 @@
           <t>MapProvider Eager Initialization</t>
         </is>
       </c>
-      <c r="D89" s="6" t="inlineStr"/>
+      <c r="D89" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E89" s="6" t="inlineStr"/>
     </row>
     <row r="90">
@@ -1897,7 +2066,9 @@
           <t>14 Root ChangeNotifierProviders</t>
         </is>
       </c>
-      <c r="D90" s="6" t="inlineStr"/>
+      <c r="D90" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E90" s="6" t="inlineStr"/>
     </row>
     <row r="91">
@@ -1912,7 +2083,9 @@
           <t>Firebase Persistence Disabled</t>
         </is>
       </c>
-      <c r="D91" s="6" t="inlineStr"/>
+      <c r="D91" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E91" s="6" t="inlineStr"/>
     </row>
     <row r="92">
@@ -1927,7 +2100,9 @@
           <t>Old SDK Version</t>
         </is>
       </c>
-      <c r="D92" s="6" t="inlineStr"/>
+      <c r="D92" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E92" s="6" t="inlineStr"/>
     </row>
     <row r="93">
@@ -1942,7 +2117,9 @@
           <t>Heavy Dependency Overrides</t>
         </is>
       </c>
-      <c r="D93" s="6" t="inlineStr"/>
+      <c r="D93" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E93" s="6" t="inlineStr"/>
     </row>
     <row r="94">
@@ -1957,7 +2134,9 @@
           <t>Unoptimized Location Tracking</t>
         </is>
       </c>
-      <c r="D94" s="6" t="inlineStr"/>
+      <c r="D94" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="E94" s="6" t="inlineStr"/>
     </row>
     <row r="95">
@@ -1972,7 +2151,9 @@
           <t>Firebase Messaging Blocks Startup</t>
         </is>
       </c>
-      <c r="D95" s="6" t="inlineStr"/>
+      <c r="D95" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E95" s="6" t="inlineStr"/>
     </row>
     <row r="96">
@@ -1987,7 +2168,9 @@
           <t>Dio Without Caching/Retry</t>
         </is>
       </c>
-      <c r="D96" s="6" t="inlineStr"/>
+      <c r="D96" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E96" s="6" t="inlineStr"/>
     </row>
     <row r="97">
@@ -2002,7 +2185,9 @@
           <t>Google Maps Without Lite Mode</t>
         </is>
       </c>
-      <c r="D97" s="6" t="inlineStr"/>
+      <c r="D97" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E97" s="6" t="inlineStr"/>
     </row>
     <row r="98">
@@ -2021,7 +2206,9 @@
           <t>No Loading States</t>
         </is>
       </c>
-      <c r="D98" s="6" t="inlineStr"/>
+      <c r="D98" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E98" s="6" t="inlineStr"/>
     </row>
     <row r="99">
@@ -2036,7 +2223,9 @@
           <t>Firebase Listener Memory Leak</t>
         </is>
       </c>
-      <c r="D99" s="6" t="inlineStr"/>
+      <c r="D99" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E99" s="6" t="inlineStr"/>
     </row>
     <row r="100">
@@ -2051,7 +2240,9 @@
           <t>Google Maps Re-initialization</t>
         </is>
       </c>
-      <c r="D100" s="6" t="inlineStr"/>
+      <c r="D100" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E100" s="6" t="inlineStr"/>
     </row>
     <row r="101">
@@ -2066,7 +2257,9 @@
           <t>No Error Boundaries</t>
         </is>
       </c>
-      <c r="D101" s="6" t="inlineStr"/>
+      <c r="D101" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E101" s="6" t="inlineStr"/>
     </row>
     <row r="102">
@@ -2081,7 +2274,9 @@
           <t>Synchronous Geocoding Blocks UI</t>
         </is>
       </c>
-      <c r="D102" s="6" t="inlineStr"/>
+      <c r="D102" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E102" s="6" t="inlineStr"/>
     </row>
     <row r="103">
@@ -2096,7 +2291,9 @@
           <t>No API Response Caching</t>
         </is>
       </c>
-      <c r="D103" s="6" t="inlineStr"/>
+      <c r="D103" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E103" s="6" t="inlineStr"/>
     </row>
     <row r="104">
@@ -2115,7 +2312,9 @@
           <t>No API Rate Limiting</t>
         </is>
       </c>
-      <c r="D104" s="6" t="inlineStr"/>
+      <c r="D104" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E104" s="6" t="inlineStr"/>
     </row>
     <row r="105">
@@ -2130,7 +2329,9 @@
           <t>Firebase Cost Risk</t>
         </is>
       </c>
-      <c r="D105" s="6" t="inlineStr"/>
+      <c r="D105" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E105" s="6" t="inlineStr"/>
     </row>
     <row r="106">
@@ -2145,7 +2346,9 @@
           <t>No Global Caching Strategy</t>
         </is>
       </c>
-      <c r="D106" s="6" t="inlineStr"/>
+      <c r="D106" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E106" s="6" t="inlineStr"/>
     </row>
     <row r="107">
@@ -2160,7 +2363,9 @@
           <t>No Load Testing</t>
         </is>
       </c>
-      <c r="D107" s="6" t="inlineStr"/>
+      <c r="D107" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E107" s="6" t="inlineStr"/>
     </row>
     <row r="108">
@@ -2190,7 +2395,9 @@
           <t>Trip info cards overflow viewport</t>
         </is>
       </c>
-      <c r="D109" s="6" t="inlineStr"/>
+      <c r="D109" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E109" s="6" t="inlineStr"/>
     </row>
     <row r="110">
@@ -2205,7 +2412,9 @@
           <t>Missing Loading States for Payment Link Creation</t>
         </is>
       </c>
-      <c r="D110" s="6" t="inlineStr"/>
+      <c r="D110" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E110" s="6" t="inlineStr"/>
     </row>
     <row r="111">
@@ -2220,7 +2429,9 @@
           <t>Missing rel Attributes on External Links</t>
         </is>
       </c>
-      <c r="D111" s="6" t="inlineStr"/>
+      <c r="D111" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E111" s="6" t="inlineStr"/>
     </row>
     <row r="112">
@@ -2235,7 +2446,9 @@
           <t>Mobile view map unusable</t>
         </is>
       </c>
-      <c r="D112" s="6" t="inlineStr"/>
+      <c r="D112" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E112" s="6" t="inlineStr"/>
     </row>
     <row r="113">
@@ -2250,7 +2463,9 @@
           <t>No back navigation option</t>
         </is>
       </c>
-      <c r="D113" s="6" t="inlineStr"/>
+      <c r="D113" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E113" s="6" t="inlineStr"/>
     </row>
     <row r="114">
@@ -2265,7 +2480,9 @@
           <t>Poor contrast on status badges</t>
         </is>
       </c>
-      <c r="D114" s="6" t="inlineStr"/>
+      <c r="D114" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E114" s="6" t="inlineStr"/>
     </row>
     <row r="115">
@@ -2280,7 +2497,9 @@
           <t>Map doesn't resize dynamically</t>
         </is>
       </c>
-      <c r="D115" s="6" t="inlineStr"/>
+      <c r="D115" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E115" s="6" t="inlineStr"/>
     </row>
     <row r="116">
@@ -2295,7 +2514,9 @@
           <t>Missing alt text for images</t>
         </is>
       </c>
-      <c r="D116" s="6" t="inlineStr"/>
+      <c r="D116" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E116" s="6" t="inlineStr"/>
     </row>
     <row r="117">
@@ -2314,7 +2535,9 @@
           <t>No Error Boundary Implementation</t>
         </is>
       </c>
-      <c r="D117" s="6" t="inlineStr"/>
+      <c r="D117" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E117" s="6" t="inlineStr"/>
     </row>
     <row r="118">
@@ -2329,7 +2552,9 @@
           <t>Race Condition in Chat Message Loading</t>
         </is>
       </c>
-      <c r="D118" s="6" t="inlineStr"/>
+      <c r="D118" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E118" s="6" t="inlineStr"/>
     </row>
     <row r="119">
@@ -2344,7 +2569,9 @@
           <t>Memory Leak: Event Listeners Not Cleaned Up</t>
         </is>
       </c>
-      <c r="D119" s="6" t="inlineStr"/>
+      <c r="D119" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E119" s="6" t="inlineStr"/>
     </row>
     <row r="120">
@@ -2359,7 +2586,9 @@
           <t>Unhandled Promise Rejections</t>
         </is>
       </c>
-      <c r="D120" s="6" t="inlineStr"/>
+      <c r="D120" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E120" s="6" t="inlineStr"/>
     </row>
     <row r="121">
@@ -2378,7 +2607,9 @@
           <t>Firebase Private Key Exposed</t>
         </is>
       </c>
-      <c r="D121" s="6" t="inlineStr"/>
+      <c r="D121" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E121" s="6" t="inlineStr"/>
     </row>
     <row r="122">
@@ -2393,7 +2624,9 @@
           <t>DEBUG Mode Enabled in Dev</t>
         </is>
       </c>
-      <c r="D122" s="6" t="inlineStr"/>
+      <c r="D122" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E122" s="6" t="inlineStr"/>
     </row>
     <row r="123">
@@ -2408,7 +2641,9 @@
           <t>Weak Password Policy</t>
         </is>
       </c>
-      <c r="D123" s="6" t="inlineStr"/>
+      <c r="D123" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E123" s="6" t="inlineStr"/>
     </row>
     <row r="124">
@@ -2423,7 +2658,9 @@
           <t>OTP Token Expiry Too Long</t>
         </is>
       </c>
-      <c r="D124" s="6" t="inlineStr"/>
+      <c r="D124" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E124" s="6" t="inlineStr"/>
     </row>
     <row r="125">
@@ -2438,7 +2675,9 @@
           <t>Insufficient Session Management</t>
         </is>
       </c>
-      <c r="D125" s="6" t="inlineStr"/>
+      <c r="D125" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E125" s="6" t="inlineStr"/>
     </row>
     <row r="126">
@@ -2453,7 +2692,9 @@
           <t>Missing CSRF Token Validation</t>
         </is>
       </c>
-      <c r="D126" s="6" t="inlineStr"/>
+      <c r="D126" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E126" s="6" t="inlineStr"/>
     </row>
     <row r="127">
@@ -2468,7 +2709,9 @@
           <t>No Account Lockout Mechanism</t>
         </is>
       </c>
-      <c r="D127" s="6" t="inlineStr"/>
+      <c r="D127" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E127" s="6" t="inlineStr"/>
     </row>
     <row r="128">
@@ -2483,7 +2726,9 @@
           <t>PyJWT Version Vulnerability</t>
         </is>
       </c>
-      <c r="D128" s="6" t="inlineStr"/>
+      <c r="D128" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E128" s="6" t="inlineStr"/>
     </row>
     <row r="129">
@@ -2502,7 +2747,9 @@
           <t>TripDrivePassengerView Is World-Readable</t>
         </is>
       </c>
-      <c r="D129" s="6" t="inlineStr"/>
+      <c r="D129" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E129" s="6" t="inlineStr"/>
     </row>
     <row r="130">
@@ -2517,7 +2764,9 @@
           <t>Legacy settings.py.save Leaks SECRET_KEY and Debug Defaults</t>
         </is>
       </c>
-      <c r="D130" s="6" t="inlineStr"/>
+      <c r="D130" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E130" s="6" t="inlineStr"/>
     </row>
     <row r="131">
@@ -2532,7 +2781,9 @@
           <t>Driver Phone Verification Endpoint Enables Enumeration and Deletion</t>
         </is>
       </c>
-      <c r="D131" s="6" t="inlineStr"/>
+      <c r="D131" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E131" s="6" t="inlineStr"/>
     </row>
     <row r="132">
@@ -2547,7 +2798,9 @@
           <t>Passenger Email Verification Endpoint is Anonymous and Destructive</t>
         </is>
       </c>
-      <c r="D132" s="6" t="inlineStr"/>
+      <c r="D132" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E132" s="6" t="inlineStr"/>
     </row>
     <row r="133">
@@ -2566,7 +2819,9 @@
           <t>Map controls overlap trip info</t>
         </is>
       </c>
-      <c r="D133" s="6" t="inlineStr"/>
+      <c r="D133" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E133" s="6" t="inlineStr"/>
     </row>
     <row r="134">
@@ -2581,7 +2836,9 @@
           <t>Advertisement carousel never reaches last slide &amp; leaks timer</t>
         </is>
       </c>
-      <c r="D134" s="6" t="inlineStr"/>
+      <c r="D134" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E134" s="6" t="inlineStr"/>
     </row>
     <row r="135">
@@ -2596,7 +2853,9 @@
           <t>Trip type displays placeholder text</t>
         </is>
       </c>
-      <c r="D135" s="6" t="inlineStr"/>
+      <c r="D135" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E135" s="6" t="inlineStr"/>
     </row>
     <row r="136">
@@ -2611,7 +2870,9 @@
           <t>Face ID/Touch ID toggle never appears</t>
         </is>
       </c>
-      <c r="D136" s="6" t="inlineStr"/>
+      <c r="D136" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E136" s="6" t="inlineStr"/>
     </row>
     <row r="137">
@@ -2626,7 +2887,9 @@
           <t>Connectivity detection disabled everywhere</t>
         </is>
       </c>
-      <c r="D137" s="6" t="inlineStr"/>
+      <c r="D137" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E137" s="6" t="inlineStr"/>
     </row>
     <row r="138">
@@ -2641,7 +2904,9 @@
           <t>Trip request timer overflows progress indicator</t>
         </is>
       </c>
-      <c r="D138" s="6" t="inlineStr"/>
+      <c r="D138" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E138" s="6" t="inlineStr"/>
     </row>
     <row r="139">
@@ -2656,7 +2921,9 @@
           <t>No validation on OCR-scanned trip kilometer values</t>
         </is>
       </c>
-      <c r="D139" s="6" t="inlineStr"/>
+      <c r="D139" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E139" s="6" t="inlineStr"/>
     </row>
     <row r="140">
@@ -2671,7 +2938,9 @@
           <t>Image cache never cleared during profile updates</t>
         </is>
       </c>
-      <c r="D140" s="6" t="inlineStr"/>
+      <c r="D140" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E140" s="6" t="inlineStr"/>
     </row>
     <row r="141">
@@ -2686,7 +2955,9 @@
           <t>No loading state when switching wallet tabs</t>
         </is>
       </c>
-      <c r="D141" s="6" t="inlineStr"/>
+      <c r="D141" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E141" s="6" t="inlineStr"/>
     </row>
     <row r="142">
@@ -2701,7 +2972,9 @@
           <t>Trip request dialog shows accept button only</t>
         </is>
       </c>
-      <c r="D142" s="6" t="inlineStr"/>
+      <c r="D142" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E142" s="6" t="inlineStr"/>
     </row>
     <row r="143">
@@ -2716,7 +2989,9 @@
           <t>No pagination or virtual scrolling in trip history</t>
         </is>
       </c>
-      <c r="D143" s="6" t="inlineStr"/>
+      <c r="D143" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E143" s="6" t="inlineStr"/>
     </row>
     <row r="144">
@@ -2731,7 +3006,9 @@
           <t>No feedback when biometric authentication fails to initialize</t>
         </is>
       </c>
-      <c r="D144" s="6" t="inlineStr"/>
+      <c r="D144" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E144" s="6" t="inlineStr"/>
     </row>
     <row r="145">
@@ -2746,7 +3023,9 @@
           <t>No offline mode indicators or queuing</t>
         </is>
       </c>
-      <c r="D145" s="6" t="inlineStr"/>
+      <c r="D145" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E145" s="6" t="inlineStr"/>
     </row>
     <row r="146">
@@ -2761,7 +3040,9 @@
           <t>SOS button accessible even when not in trip</t>
         </is>
       </c>
-      <c r="D146" s="6" t="inlineStr"/>
+      <c r="D146" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E146" s="6" t="inlineStr"/>
     </row>
     <row r="147">
@@ -2776,7 +3057,9 @@
           <t>Firestore listener not properly cleaned up on logout</t>
         </is>
       </c>
-      <c r="D147" s="6" t="inlineStr"/>
+      <c r="D147" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E147" s="6" t="inlineStr"/>
     </row>
     <row r="148">
@@ -2791,7 +3074,9 @@
           <t>No confirmation dialog when changing payment method</t>
         </is>
       </c>
-      <c r="D148" s="6" t="inlineStr"/>
+      <c r="D148" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E148" s="6" t="inlineStr"/>
     </row>
     <row r="149">
@@ -2806,7 +3091,9 @@
           <t>Trip request modal cuts off on small screens</t>
         </is>
       </c>
-      <c r="D149" s="6" t="inlineStr"/>
+      <c r="D149" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E149" s="6" t="inlineStr"/>
     </row>
     <row r="150">
@@ -2821,7 +3108,9 @@
           <t>Back button exits app unexpectedly</t>
         </is>
       </c>
-      <c r="D150" s="6" t="inlineStr"/>
+      <c r="D150" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E150" s="6" t="inlineStr"/>
     </row>
     <row r="151">
@@ -2836,7 +3125,9 @@
           <t>Status colors unclear</t>
         </is>
       </c>
-      <c r="D151" s="6" t="inlineStr"/>
+      <c r="D151" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E151" s="6" t="inlineStr"/>
     </row>
     <row r="152">
@@ -2851,7 +3142,9 @@
           <t>Chat keyboard covers input</t>
         </is>
       </c>
-      <c r="D152" s="6" t="inlineStr"/>
+      <c r="D152" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E152" s="6" t="inlineStr"/>
     </row>
     <row r="153">
@@ -2866,7 +3159,9 @@
           <t>No voice navigation</t>
         </is>
       </c>
-      <c r="D153" s="6" t="inlineStr"/>
+      <c r="D153" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E153" s="6" t="inlineStr"/>
     </row>
     <row r="154">
@@ -2881,7 +3176,9 @@
           <t>Can't return from trip details</t>
         </is>
       </c>
-      <c r="D154" s="6" t="inlineStr"/>
+      <c r="D154" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E154" s="6" t="inlineStr"/>
     </row>
     <row r="155">
@@ -2900,7 +3197,9 @@
           <t>Map search bar covers location pin</t>
         </is>
       </c>
-      <c r="D155" s="6" t="inlineStr"/>
+      <c r="D155" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E155" s="6" t="inlineStr"/>
     </row>
     <row r="156">
@@ -2915,7 +3214,9 @@
           <t>Stuck in loading screen</t>
         </is>
       </c>
-      <c r="D156" s="6" t="inlineStr"/>
+      <c r="D156" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E156" s="6" t="inlineStr"/>
     </row>
     <row r="157">
@@ -2930,7 +3231,9 @@
           <t>Hardcoded Serving Areas Instead of API Response</t>
         </is>
       </c>
-      <c r="D157" s="6" t="inlineStr"/>
+      <c r="D157" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E157" s="6" t="inlineStr"/>
     </row>
     <row r="158">
@@ -2945,7 +3248,9 @@
           <t>No Offline Handling or Network State Management</t>
         </is>
       </c>
-      <c r="D158" s="6" t="inlineStr"/>
+      <c r="D158" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E158" s="6" t="inlineStr"/>
     </row>
     <row r="159">
@@ -2960,7 +3265,9 @@
           <t>Payment methods cut off on SE models</t>
         </is>
       </c>
-      <c r="D159" s="6" t="inlineStr"/>
+      <c r="D159" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E159" s="6" t="inlineStr"/>
     </row>
     <row r="160">
@@ -2975,7 +3282,9 @@
           <t>No loading state during booking</t>
         </is>
       </c>
-      <c r="D160" s="6" t="inlineStr"/>
+      <c r="D160" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E160" s="6" t="inlineStr"/>
     </row>
     <row r="161">
@@ -2990,7 +3299,9 @@
           <t>Color-only status indicators</t>
         </is>
       </c>
-      <c r="D161" s="6" t="inlineStr"/>
+      <c r="D161" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E161" s="6" t="inlineStr"/>
     </row>
     <row r="162">
@@ -3005,7 +3316,9 @@
           <t>Driver info card blocks map</t>
         </is>
       </c>
-      <c r="D162" s="6" t="inlineStr"/>
+      <c r="D162" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E162" s="6" t="inlineStr"/>
     </row>
     <row r="163">
@@ -3020,7 +3333,9 @@
           <t>RTL layout broken</t>
         </is>
       </c>
-      <c r="D163" s="6" t="inlineStr"/>
+      <c r="D163" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E163" s="6" t="inlineStr"/>
     </row>
     <row r="164">
@@ -3035,7 +3350,9 @@
           <t>Insufficient contrast</t>
         </is>
       </c>
-      <c r="D164" s="6" t="inlineStr"/>
+      <c r="D164" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E164" s="6" t="inlineStr"/>
     </row>
     <row r="165">
@@ -3054,7 +3371,9 @@
           <t>Mobile view completely broken</t>
         </is>
       </c>
-      <c r="D165" s="6" t="inlineStr"/>
+      <c r="D165" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E165" s="6" t="inlineStr"/>
     </row>
     <row r="166">
@@ -3069,7 +3388,9 @@
           <t>No Code Splitting for Routes</t>
         </is>
       </c>
-      <c r="D166" s="6" t="inlineStr"/>
+      <c r="D166" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E166" s="6" t="inlineStr"/>
     </row>
     <row r="167">
@@ -3084,7 +3405,9 @@
           <t>Missing React.memo on Frequently Re-rendered Components</t>
         </is>
       </c>
-      <c r="D167" s="6" t="inlineStr"/>
+      <c r="D167" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E167" s="6" t="inlineStr"/>
     </row>
     <row r="168">
@@ -3099,7 +3422,9 @@
           <t>Unoptimized Firebase Queries</t>
         </is>
       </c>
-      <c r="D168" s="6" t="inlineStr"/>
+      <c r="D168" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E168" s="6" t="inlineStr"/>
     </row>
     <row r="169">
@@ -3114,7 +3439,9 @@
           <t>Large Number of State Updates in Render</t>
         </is>
       </c>
-      <c r="D169" s="6" t="inlineStr"/>
+      <c r="D169" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E169" s="6" t="inlineStr"/>
     </row>
     <row r="170">
@@ -3129,7 +3456,9 @@
           <t>Dashboard charts overflow on small screens</t>
         </is>
       </c>
-      <c r="D170" s="6" t="inlineStr"/>
+      <c r="D170" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E170" s="6" t="inlineStr"/>
     </row>
     <row r="171">
@@ -3144,7 +3473,9 @@
           <t>Back button doesn't work with HashRouter</t>
         </is>
       </c>
-      <c r="D171" s="6" t="inlineStr"/>
+      <c r="D171" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E171" s="6" t="inlineStr"/>
     </row>
     <row r="172">
@@ -3159,7 +3490,9 @@
           <t>No keyboard navigation for data grids</t>
         </is>
       </c>
-      <c r="D172" s="6" t="inlineStr"/>
+      <c r="D172" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E172" s="6" t="inlineStr"/>
     </row>
     <row r="173">
@@ -3174,7 +3507,9 @@
           <t>Poor color contrast in dark sections</t>
         </is>
       </c>
-      <c r="D173" s="6" t="inlineStr"/>
+      <c r="D173" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E173" s="6" t="inlineStr"/>
     </row>
     <row r="174">
@@ -3189,7 +3524,9 @@
           <t>Map doesn't resize with viewport</t>
         </is>
       </c>
-      <c r="D174" s="6" t="inlineStr"/>
+      <c r="D174" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E174" s="6" t="inlineStr"/>
     </row>
     <row r="175">
@@ -3204,7 +3541,9 @@
           <t>RTL layout broken for Arabic</t>
         </is>
       </c>
-      <c r="D175" s="6" t="inlineStr"/>
+      <c r="D175" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E175" s="6" t="inlineStr"/>
     </row>
     <row r="176">
@@ -3219,7 +3558,9 @@
           <t>Sidebar state lost on refresh</t>
         </is>
       </c>
-      <c r="D176" s="6" t="inlineStr"/>
+      <c r="D176" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E176" s="6" t="inlineStr"/>
     </row>
     <row r="177">
@@ -3234,7 +3575,9 @@
           <t>No focus indicators</t>
         </is>
       </c>
-      <c r="D177" s="6" t="inlineStr"/>
+      <c r="D177" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E177" s="6" t="inlineStr"/>
     </row>
     <row r="178">
@@ -3253,7 +3596,9 @@
           <t>Driver pagination allows unbounded limit</t>
         </is>
       </c>
-      <c r="D178" s="6" t="inlineStr"/>
+      <c r="D178" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E178" s="6" t="inlineStr"/>
     </row>
     <row r="179">
@@ -3268,7 +3613,9 @@
           <t>GarageTrips endpoint lacks pagination</t>
         </is>
       </c>
-      <c r="D179" s="6" t="inlineStr"/>
+      <c r="D179" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E179" s="6" t="inlineStr"/>
     </row>
     <row r="180">
@@ -3283,7 +3630,9 @@
           <t>Transaction claim endpoint responds with plain OK</t>
         </is>
       </c>
-      <c r="D180" s="6" t="inlineStr"/>
+      <c r="D180" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E180" s="6" t="inlineStr"/>
     </row>
     <row r="181">
@@ -3298,7 +3647,9 @@
           <t>Checkout template misses lang, title, and labels</t>
         </is>
       </c>
-      <c r="D181" s="6" t="inlineStr"/>
+      <c r="D181" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E181" s="6" t="inlineStr"/>
     </row>
     <row r="182">
@@ -3313,7 +3664,9 @@
           <t>OTP validation deletes accounts after expiry</t>
         </is>
       </c>
-      <c r="D182" s="6" t="inlineStr"/>
+      <c r="D182" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E182" s="6" t="inlineStr"/>
     </row>
     <row r="183">
@@ -3328,7 +3681,9 @@
           <t>Transaction claim logging happens after the database update</t>
         </is>
       </c>
-      <c r="D183" s="6" t="inlineStr"/>
+      <c r="D183" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E183" s="6" t="inlineStr"/>
     </row>
     <row r="184">
@@ -3347,7 +3702,9 @@
           <t>Payment page renders an empty layout before the checkout iframe</t>
         </is>
       </c>
-      <c r="D184" s="6" t="inlineStr"/>
+      <c r="D184" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E184" s="6" t="inlineStr"/>
     </row>
     <row r="185">
@@ -3362,7 +3719,9 @@
           <t>Checkout page missing viewport meta</t>
         </is>
       </c>
-      <c r="D185" s="6" t="inlineStr"/>
+      <c r="D185" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E185" s="6" t="inlineStr"/>
     </row>
     <row r="186">
@@ -3377,7 +3736,9 @@
           <t>Hosted checkout offers no visible cancel/back affordance</t>
         </is>
       </c>
-      <c r="D186" s="6" t="inlineStr"/>
+      <c r="D186" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E186" s="6" t="inlineStr"/>
     </row>
     <row r="187">
@@ -3392,7 +3753,9 @@
           <t>Checkout page lacks language, title, and instructions</t>
         </is>
       </c>
-      <c r="D187" s="6" t="inlineStr"/>
+      <c r="D187" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E187" s="6" t="inlineStr"/>
     </row>
     <row r="188">
@@ -3407,7 +3770,9 @@
           <t>Driver phone verification deletes accounts after OTP expiry</t>
         </is>
       </c>
-      <c r="D188" s="6" t="inlineStr"/>
+      <c r="D188" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E188" s="6" t="inlineStr"/>
     </row>
     <row r="189">
@@ -3422,7 +3787,9 @@
           <t>Driver username verification deletes profiles</t>
         </is>
       </c>
-      <c r="D189" s="6" t="inlineStr"/>
+      <c r="D189" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E189" s="6" t="inlineStr"/>
     </row>
     <row r="190">
@@ -3437,7 +3804,9 @@
           <t>Passenger phone verification mirrors the destructive delete pattern</t>
         </is>
       </c>
-      <c r="D190" s="6" t="inlineStr"/>
+      <c r="D190" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E190" s="6" t="inlineStr"/>
     </row>
     <row r="191">
@@ -3452,7 +3821,9 @@
           <t>AuthTokenView logs users out with "Invalid token" only</t>
         </is>
       </c>
-      <c r="D191" s="6" t="inlineStr"/>
+      <c r="D191" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E191" s="6" t="inlineStr"/>
     </row>
     <row r="192">
@@ -3471,7 +3842,9 @@
           <t>Missing Dependencies in Package.json</t>
         </is>
       </c>
-      <c r="D192" s="6" t="inlineStr"/>
+      <c r="D192" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E192" s="6" t="inlineStr"/>
     </row>
     <row r="193">
@@ -3486,7 +3859,9 @@
           <t>Unsafe Type Assertion with Non-null Assertion Operator</t>
         </is>
       </c>
-      <c r="D193" s="6" t="inlineStr"/>
+      <c r="D193" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E193" s="6" t="inlineStr"/>
     </row>
     <row r="194">
@@ -3501,7 +3876,9 @@
           <t>Unhandled Promise Rejection in Geocoder</t>
         </is>
       </c>
-      <c r="D194" s="6" t="inlineStr"/>
+      <c r="D194" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E194" s="6" t="inlineStr"/>
     </row>
     <row r="195">
@@ -3516,7 +3893,9 @@
           <t>Missing Image Path Leading Slash</t>
         </is>
       </c>
-      <c r="D195" s="6" t="inlineStr"/>
+      <c r="D195" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E195" s="6" t="inlineStr"/>
     </row>
     <row r="196">
@@ -3531,7 +3910,9 @@
           <t>Weak Comparison Operators</t>
         </is>
       </c>
-      <c r="D196" s="6" t="inlineStr"/>
+      <c r="D196" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E196" s="6" t="inlineStr"/>
     </row>
     <row r="197">
@@ -3546,7 +3927,9 @@
           <t>No Error Boundary Implementation</t>
         </is>
       </c>
-      <c r="D197" s="6" t="inlineStr"/>
+      <c r="D197" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E197" s="6" t="inlineStr"/>
     </row>
     <row r="198">
@@ -3561,7 +3944,9 @@
           <t>Incomplete Error Handling in API Calls</t>
         </is>
       </c>
-      <c r="D198" s="6" t="inlineStr"/>
+      <c r="D198" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E198" s="6" t="inlineStr"/>
     </row>
     <row r="199">
@@ -3576,7 +3961,9 @@
           <t>Hardcoded Currency Symbol</t>
         </is>
       </c>
-      <c r="D199" s="6" t="inlineStr"/>
+      <c r="D199" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E199" s="6" t="inlineStr"/>
     </row>
     <row r="200">
@@ -3591,7 +3978,9 @@
           <t>Map Crashes When Destination Coordinates Are Missing</t>
         </is>
       </c>
-      <c r="D200" s="6" t="inlineStr"/>
+      <c r="D200" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E200" s="6" t="inlineStr"/>
     </row>
     <row r="201">
@@ -3610,7 +3999,9 @@
           <t>Race condition in Firebase user data initialization</t>
         </is>
       </c>
-      <c r="D201" s="6" t="inlineStr"/>
+      <c r="D201" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E201" s="6" t="inlineStr"/>
     </row>
     <row r="202">
@@ -3625,7 +4016,9 @@
           <t>Background push handler never processes payload</t>
         </is>
       </c>
-      <c r="D202" s="6" t="inlineStr"/>
+      <c r="D202" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E202" s="6" t="inlineStr"/>
     </row>
     <row r="203">
@@ -3640,7 +4033,9 @@
           <t>Notification listeners multiply on every tap</t>
         </is>
       </c>
-      <c r="D203" s="6" t="inlineStr"/>
+      <c r="D203" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E203" s="6" t="inlineStr"/>
     </row>
     <row r="204">
@@ -3655,7 +4050,9 @@
           <t>Map initialization ignores denied permissions</t>
         </is>
       </c>
-      <c r="D204" s="6" t="inlineStr"/>
+      <c r="D204" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E204" s="6" t="inlineStr"/>
     </row>
     <row r="205">
@@ -3670,7 +4067,9 @@
           <t>Background location never switched off</t>
         </is>
       </c>
-      <c r="D205" s="6" t="inlineStr"/>
+      <c r="D205" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E205" s="6" t="inlineStr"/>
     </row>
     <row r="206">
@@ -3685,7 +4084,9 @@
           <t>Pagination guard dereferences `totalTripsCount!` before it is set</t>
         </is>
       </c>
-      <c r="D206" s="6" t="inlineStr"/>
+      <c r="D206" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E206" s="6" t="inlineStr"/>
     </row>
     <row r="207">
@@ -3700,7 +4101,9 @@
           <t>Account deletion hidden on Android</t>
         </is>
       </c>
-      <c r="D207" s="6" t="inlineStr"/>
+      <c r="D207" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E207" s="6" t="inlineStr"/>
     </row>
     <row r="208">
@@ -3715,7 +4118,9 @@
           <t>Notification handler assumes `message.notification` is always present</t>
         </is>
       </c>
-      <c r="D208" s="6" t="inlineStr"/>
+      <c r="D208" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E208" s="6" t="inlineStr"/>
     </row>
     <row r="209">
@@ -3730,7 +4135,9 @@
           <t>Wallet calculation double-counts unclaimed transactions</t>
         </is>
       </c>
-      <c r="D209" s="6" t="inlineStr"/>
+      <c r="D209" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E209" s="6" t="inlineStr"/>
     </row>
     <row r="210">
@@ -3745,7 +4152,9 @@
           <t>Token stored in plain SharedPreferences without encryption</t>
         </is>
       </c>
-      <c r="D210" s="6" t="inlineStr"/>
+      <c r="D210" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E210" s="6" t="inlineStr"/>
     </row>
     <row r="211">
@@ -3760,7 +4169,9 @@
           <t>Excessive debug logging exposes sensitive data</t>
         </is>
       </c>
-      <c r="D211" s="6" t="inlineStr"/>
+      <c r="D211" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E211" s="6" t="inlineStr"/>
     </row>
     <row r="212">
@@ -3775,7 +4186,9 @@
           <t>Map screen shows hardcoded Arabic text regardless of locale</t>
         </is>
       </c>
-      <c r="D212" s="6" t="inlineStr"/>
+      <c r="D212" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E212" s="6" t="inlineStr"/>
     </row>
     <row r="213">
@@ -3790,7 +4203,9 @@
           <t>Location stream never disposed properly</t>
         </is>
       </c>
-      <c r="D213" s="6" t="inlineStr"/>
+      <c r="D213" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E213" s="6" t="inlineStr"/>
     </row>
     <row r="214">
@@ -3805,7 +4220,9 @@
           <t>Password validation regex allows weak passwords</t>
         </is>
       </c>
-      <c r="D214" s="6" t="inlineStr"/>
+      <c r="D214" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E214" s="6" t="inlineStr"/>
     </row>
     <row r="215">
@@ -3820,7 +4237,9 @@
           <t>Missing privacy policy acknowledgment on data collection</t>
         </is>
       </c>
-      <c r="D215" s="6" t="inlineStr"/>
+      <c r="D215" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E215" s="6" t="inlineStr"/>
     </row>
     <row r="216">
@@ -3835,7 +4254,9 @@
           <t>Unchecked null dereference in notification handlers</t>
         </is>
       </c>
-      <c r="D216" s="6" t="inlineStr"/>
+      <c r="D216" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E216" s="6" t="inlineStr"/>
     </row>
     <row r="217">
@@ -3854,7 +4275,9 @@
           <t>Missing Error Handling in API Helper</t>
         </is>
       </c>
-      <c r="D217" s="6" t="inlineStr"/>
+      <c r="D217" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="E217" s="6" t="inlineStr"/>
     </row>
     <row r="218">
@@ -3869,7 +4292,9 @@
           <t>Potential setState After Dispose</t>
         </is>
       </c>
-      <c r="D218" s="6" t="inlineStr"/>
+      <c r="D218" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E218" s="6" t="inlineStr"/>
     </row>
     <row r="219">
@@ -3884,7 +4309,9 @@
           <t>Duplicate Provider Registration</t>
         </is>
       </c>
-      <c r="D219" s="6" t="inlineStr"/>
+      <c r="D219" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E219" s="6" t="inlineStr"/>
     </row>
     <row r="220">
@@ -3899,7 +4326,9 @@
           <t>Missing Input Validation and Sanitization Insufficient Client-Side Input Validation</t>
         </is>
       </c>
-      <c r="D220" s="6" t="inlineStr"/>
+      <c r="D220" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E220" s="6" t="inlineStr"/>
     </row>
     <row r="221">
@@ -3914,7 +4343,9 @@
           <t>Excessive Use of `print()` Statements Debug Print Statements in Production Code</t>
         </is>
       </c>
-      <c r="D221" s="6" t="inlineStr"/>
+      <c r="D221" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E221" s="6" t="inlineStr"/>
     </row>
     <row r="222">
@@ -3929,7 +4360,9 @@
           <t>Version Mismatch Between `pubspec.yaml` and `main.dart` Hardcoded Version String Doesn't Match Package Version</t>
         </is>
       </c>
-      <c r="D222" s="6" t="inlineStr"/>
+      <c r="D222" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E222" s="6" t="inlineStr"/>
     </row>
     <row r="223">
@@ -3944,7 +4377,9 @@
           <t>Unsafe Context Usage in Async Callbacks `BuildContext` Used Across Async Gaps</t>
         </is>
       </c>
-      <c r="D223" s="6" t="inlineStr"/>
+      <c r="D223" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E223" s="6" t="inlineStr"/>
     </row>
     <row r="224">
@@ -3959,7 +4394,9 @@
           <t>Unhandled Null Reference Exceptions Forced Unwrapping of Nullable Types</t>
         </is>
       </c>
-      <c r="D224" s="6" t="inlineStr"/>
+      <c r="D224" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E224" s="6" t="inlineStr"/>
     </row>
     <row r="225">
@@ -3974,7 +4411,9 @@
           <t>Missing Input Validation and Sanitization</t>
         </is>
       </c>
-      <c r="D225" s="6" t="inlineStr"/>
+      <c r="D225" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E225" s="6" t="inlineStr"/>
     </row>
     <row r="226">
@@ -3989,7 +4428,9 @@
           <t>Excessive Use of print() and debugPrint() Statements</t>
         </is>
       </c>
-      <c r="D226" s="6" t="inlineStr"/>
+      <c r="D226" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E226" s="6" t="inlineStr"/>
     </row>
     <row r="227">
@@ -4004,7 +4445,9 @@
           <t>Version Mismatch Between pubspec.yaml and main.dart</t>
         </is>
       </c>
-      <c r="D227" s="6" t="inlineStr"/>
+      <c r="D227" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E227" s="6" t="inlineStr"/>
     </row>
     <row r="228">
@@ -4019,7 +4462,9 @@
           <t>Unsafe Context Usage in Async Callbacks</t>
         </is>
       </c>
-      <c r="D228" s="6" t="inlineStr"/>
+      <c r="D228" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E228" s="6" t="inlineStr"/>
     </row>
     <row r="229">
@@ -4034,7 +4479,9 @@
           <t>Unhandled Null Reference Exceptions</t>
         </is>
       </c>
-      <c r="D229" s="6" t="inlineStr"/>
+      <c r="D229" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E229" s="6" t="inlineStr"/>
     </row>
     <row r="230">
@@ -4064,7 +4511,9 @@
           <t>No API Versioning</t>
         </is>
       </c>
-      <c r="D231" s="6" t="inlineStr"/>
+      <c r="D231" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="E231" s="6" t="inlineStr"/>
     </row>
     <row r="232">
@@ -4079,7 +4528,9 @@
           <t>No SSL Certificate Pinning</t>
         </is>
       </c>
-      <c r="D232" s="6" t="inlineStr"/>
+      <c r="D232" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E232" s="6" t="inlineStr"/>
     </row>
     <row r="233">
@@ -4094,7 +4545,9 @@
           <t>No Root/Jailbreak Detection</t>
         </is>
       </c>
-      <c r="D233" s="6" t="inlineStr"/>
+      <c r="D233" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E233" s="6" t="inlineStr"/>
     </row>
     <row r="234">
@@ -4109,7 +4562,9 @@
           <t>Insufficient File Upload Validation</t>
         </is>
       </c>
-      <c r="D234" s="6" t="inlineStr"/>
+      <c r="D234" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E234" s="6" t="inlineStr"/>
     </row>
     <row r="235">
@@ -4124,7 +4579,9 @@
           <t>Unlimited Concurrent Sessions</t>
         </is>
       </c>
-      <c r="D235" s="6" t="inlineStr"/>
+      <c r="D235" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E235" s="6" t="inlineStr"/>
     </row>
     <row r="236">
@@ -4139,7 +4596,9 @@
           <t>Weak Password Policy</t>
         </is>
       </c>
-      <c r="D236" s="6" t="inlineStr"/>
+      <c r="D236" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E236" s="6" t="inlineStr"/>
     </row>
     <row r="237">
@@ -4154,7 +4613,9 @@
           <t>No Request Size Limits</t>
         </is>
       </c>
-      <c r="D237" s="6" t="inlineStr"/>
+      <c r="D237" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E237" s="6" t="inlineStr"/>
     </row>
     <row r="238">
@@ -4169,7 +4630,9 @@
           <t>No Database Query Optimization</t>
         </is>
       </c>
-      <c r="D238" s="6" t="inlineStr"/>
+      <c r="D238" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E238" s="6" t="inlineStr"/>
     </row>
     <row r="239">
@@ -4184,7 +4647,9 @@
           <t>No Content Security for Stored Files</t>
         </is>
       </c>
-      <c r="D239" s="6" t="inlineStr"/>
+      <c r="D239" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E239" s="6" t="inlineStr"/>
     </row>
     <row r="240">
@@ -4203,7 +4668,9 @@
           <t>No Database Query Optimization</t>
         </is>
       </c>
-      <c r="D240" s="6" t="inlineStr"/>
+      <c r="D240" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E240" s="6" t="inlineStr"/>
     </row>
     <row r="241">
@@ -4218,7 +4685,9 @@
           <t>No Response Compression</t>
         </is>
       </c>
-      <c r="D241" s="6" t="inlineStr"/>
+      <c r="D241" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E241" s="6" t="inlineStr"/>
     </row>
     <row r="242">
@@ -4233,7 +4702,9 @@
           <t>Missing Query Result Caching</t>
         </is>
       </c>
-      <c r="D242" s="6" t="inlineStr"/>
+      <c r="D242" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E242" s="6" t="inlineStr"/>
     </row>
     <row r="243">
@@ -4248,7 +4719,9 @@
           <t>Date Filtering Using ObjectId Only</t>
         </is>
       </c>
-      <c r="D243" s="6" t="inlineStr"/>
+      <c r="D243" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E243" s="6" t="inlineStr"/>
     </row>
     <row r="244">
@@ -4263,7 +4736,9 @@
           <t>Print Statements in Production</t>
         </is>
       </c>
-      <c r="D244" s="6" t="inlineStr"/>
+      <c r="D244" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E244" s="6" t="inlineStr"/>
     </row>
     <row r="245">
@@ -4278,7 +4753,9 @@
           <t>Unindexed Regex Queries</t>
         </is>
       </c>
-      <c r="D245" s="6" t="inlineStr"/>
+      <c r="D245" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E245" s="6" t="inlineStr"/>
     </row>
     <row r="246">
@@ -4293,7 +4770,9 @@
           <t>Large Serializer Depth</t>
         </is>
       </c>
-      <c r="D246" s="6" t="inlineStr"/>
+      <c r="D246" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E246" s="6" t="inlineStr"/>
     </row>
     <row r="247">
@@ -4308,7 +4787,9 @@
           <t>No Query Monitoring</t>
         </is>
       </c>
-      <c r="D247" s="6" t="inlineStr"/>
+      <c r="D247" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E247" s="6" t="inlineStr"/>
     </row>
     <row r="248">
@@ -4323,7 +4804,9 @@
           <t>Missing Per-Endpoint Rate Limiting</t>
         </is>
       </c>
-      <c r="D248" s="6" t="inlineStr"/>
+      <c r="D248" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E248" s="6" t="inlineStr"/>
     </row>
     <row r="249">
@@ -4338,7 +4821,9 @@
           <t>No CDN for Static/Media Files</t>
         </is>
       </c>
-      <c r="D249" s="6" t="inlineStr"/>
+      <c r="D249" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E249" s="6" t="inlineStr"/>
     </row>
     <row r="250">
@@ -4353,7 +4838,9 @@
           <t>No HTTP/2 Support Verification</t>
         </is>
       </c>
-      <c r="D250" s="6" t="inlineStr"/>
+      <c r="D250" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E250" s="6" t="inlineStr"/>
     </row>
     <row r="251">
@@ -4368,7 +4855,9 @@
           <t>WhiteNoise for Static Files</t>
         </is>
       </c>
-      <c r="D251" s="6" t="inlineStr"/>
+      <c r="D251" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E251" s="6" t="inlineStr"/>
     </row>
     <row r="252">
@@ -4383,7 +4872,9 @@
           <t>Inefficient Wallet Calculation</t>
         </is>
       </c>
-      <c r="D252" s="6" t="inlineStr"/>
+      <c r="D252" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E252" s="6" t="inlineStr"/>
     </row>
     <row r="253">
@@ -4398,7 +4889,9 @@
           <t>No Pagination on Transaction Exports</t>
         </is>
       </c>
-      <c r="D253" s="6" t="inlineStr"/>
+      <c r="D253" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E253" s="6" t="inlineStr"/>
     </row>
     <row r="254">
@@ -4413,7 +4906,9 @@
           <t>Redundant Serializer Database Queries</t>
         </is>
       </c>
-      <c r="D254" s="6" t="inlineStr"/>
+      <c r="D254" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E254" s="6" t="inlineStr"/>
     </row>
     <row r="255">
@@ -4428,7 +4923,9 @@
           <t>Excessive Debug Print Statements</t>
         </is>
       </c>
-      <c r="D255" s="6" t="inlineStr"/>
+      <c r="D255" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E255" s="6" t="inlineStr"/>
     </row>
     <row r="256">
@@ -4447,7 +4944,9 @@
           <t>Inefficient Promo Code Validation</t>
         </is>
       </c>
-      <c r="D256" s="6" t="inlineStr"/>
+      <c r="D256" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E256" s="6" t="inlineStr"/>
     </row>
     <row r="257">
@@ -4462,7 +4961,9 @@
           <t>Redundant Trip Fetching in Celery</t>
         </is>
       </c>
-      <c r="D257" s="6" t="inlineStr"/>
+      <c r="D257" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E257" s="6" t="inlineStr"/>
     </row>
     <row r="258">
@@ -4477,7 +4978,9 @@
           <t>No Caching for Country Settings</t>
         </is>
       </c>
-      <c r="D258" s="6" t="inlineStr"/>
+      <c r="D258" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E258" s="6" t="inlineStr"/>
     </row>
     <row r="259">
@@ -4492,7 +4995,9 @@
           <t>No Pagination on Trip Lists</t>
         </is>
       </c>
-      <c r="D259" s="6" t="inlineStr"/>
+      <c r="D259" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E259" s="6" t="inlineStr"/>
     </row>
     <row r="260">
@@ -4507,7 +5012,9 @@
           <t>Heavy Serialization Without Field Selection</t>
         </is>
       </c>
-      <c r="D260" s="6" t="inlineStr"/>
+      <c r="D260" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E260" s="6" t="inlineStr"/>
     </row>
     <row r="261">
@@ -4526,7 +5033,9 @@
           <t>QueryClient Default Config</t>
         </is>
       </c>
-      <c r="D261" s="6" t="inlineStr"/>
+      <c r="D261" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E261" s="6" t="inlineStr"/>
     </row>
     <row r="262">
@@ -4541,7 +5050,9 @@
           <t>Firebase Listeners Without Cleanup</t>
         </is>
       </c>
-      <c r="D262" s="6" t="inlineStr"/>
+      <c r="D262" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E262" s="6" t="inlineStr"/>
     </row>
     <row r="263">
@@ -4556,7 +5067,9 @@
           <t>No Image Optimization</t>
         </is>
       </c>
-      <c r="D263" s="6" t="inlineStr"/>
+      <c r="D263" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E263" s="6" t="inlineStr"/>
     </row>
     <row r="264">
@@ -4571,7 +5084,9 @@
           <t>Duplicate Charting Libraries</t>
         </is>
       </c>
-      <c r="D264" s="6" t="inlineStr"/>
+      <c r="D264" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E264" s="6" t="inlineStr"/>
     </row>
     <row r="265">
@@ -4586,7 +5101,9 @@
           <t>High Chunk Size Warning Limit</t>
         </is>
       </c>
-      <c r="D265" s="6" t="inlineStr"/>
+      <c r="D265" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E265" s="6" t="inlineStr"/>
     </row>
     <row r="266">
@@ -4605,7 +5122,9 @@
           <t>Synchronous Hive Initialization</t>
         </is>
       </c>
-      <c r="D266" s="6" t="inlineStr"/>
+      <c r="D266" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E266" s="6" t="inlineStr"/>
     </row>
     <row r="267">
@@ -4620,7 +5139,9 @@
           <t>Heavy Dependencies</t>
         </is>
       </c>
-      <c r="D267" s="6" t="inlineStr"/>
+      <c r="D267" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E267" s="6" t="inlineStr"/>
     </row>
     <row r="268">
@@ -4635,7 +5156,9 @@
           <t>Multiple Location Services</t>
         </is>
       </c>
-      <c r="D268" s="6" t="inlineStr"/>
+      <c r="D268" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E268" s="6" t="inlineStr"/>
     </row>
     <row r="269">
@@ -4650,7 +5173,9 @@
           <t>Firestore Persistence Enabled</t>
         </is>
       </c>
-      <c r="D269" s="6" t="inlineStr"/>
+      <c r="D269" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E269" s="6" t="inlineStr"/>
     </row>
     <row r="270">
@@ -4665,7 +5190,9 @@
           <t>Flutter HTML in Chat</t>
         </is>
       </c>
-      <c r="D270" s="6" t="inlineStr"/>
+      <c r="D270" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E270" s="6" t="inlineStr"/>
     </row>
     <row r="271">
@@ -4680,7 +5207,9 @@
           <t>Videos in Assets</t>
         </is>
       </c>
-      <c r="D271" s="6" t="inlineStr"/>
+      <c r="D271" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E271" s="6" t="inlineStr"/>
     </row>
     <row r="272">
@@ -4699,7 +5228,9 @@
           <t>Synchronous Wakelock in Main</t>
         </is>
       </c>
-      <c r="D272" s="6" t="inlineStr"/>
+      <c r="D272" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E272" s="6" t="inlineStr"/>
     </row>
     <row r="273">
@@ -4714,7 +5245,9 @@
           <t>Audio Player Resource Leak</t>
         </is>
       </c>
-      <c r="D273" s="6" t="inlineStr"/>
+      <c r="D273" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E273" s="6" t="inlineStr"/>
     </row>
     <row r="274">
@@ -4729,7 +5262,9 @@
           <t>Google MLKit Text Recognition</t>
         </is>
       </c>
-      <c r="D274" s="6" t="inlineStr"/>
+      <c r="D274" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E274" s="6" t="inlineStr"/>
     </row>
     <row r="275">
@@ -4744,7 +5279,9 @@
           <t>Image Picker Without Compression</t>
         </is>
       </c>
-      <c r="D275" s="6" t="inlineStr"/>
+      <c r="D275" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E275" s="6" t="inlineStr"/>
     </row>
     <row r="276">
@@ -4759,7 +5296,9 @@
           <t>Device Preview in Production</t>
         </is>
       </c>
-      <c r="D276" s="6" t="inlineStr"/>
+      <c r="D276" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E276" s="6" t="inlineStr"/>
     </row>
     <row r="277">
@@ -4774,7 +5313,9 @@
           <t>Polyline on UI Thread</t>
         </is>
       </c>
-      <c r="D277" s="6" t="inlineStr"/>
+      <c r="D277" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E277" s="6" t="inlineStr"/>
     </row>
     <row r="278">
@@ -4793,7 +5334,9 @@
           <t>Firebase Bundle Not Optimized</t>
         </is>
       </c>
-      <c r="D278" s="6" t="inlineStr"/>
+      <c r="D278" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E278" s="6" t="inlineStr"/>
     </row>
     <row r="279">
@@ -4808,7 +5351,9 @@
           <t>Map Loads Unnecessarily</t>
         </is>
       </c>
-      <c r="D279" s="6" t="inlineStr"/>
+      <c r="D279" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E279" s="6" t="inlineStr"/>
     </row>
     <row r="280">
@@ -4823,7 +5368,9 @@
           <t>No Request Debouncing</t>
         </is>
       </c>
-      <c r="D280" s="6" t="inlineStr"/>
+      <c r="D280" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E280" s="6" t="inlineStr"/>
     </row>
     <row r="281">
@@ -4838,7 +5385,9 @@
           <t>Missing Performance Metrics</t>
         </is>
       </c>
-      <c r="D281" s="6" t="inlineStr"/>
+      <c r="D281" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E281" s="6" t="inlineStr"/>
     </row>
     <row r="282">
@@ -4853,7 +5402,9 @@
           <t>No SSR or Progressive Enhancement</t>
         </is>
       </c>
-      <c r="D282" s="6" t="inlineStr"/>
+      <c r="D282" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E282" s="6" t="inlineStr"/>
     </row>
     <row r="283">
@@ -4868,7 +5419,9 @@
           <t>Zero Test Coverage</t>
         </is>
       </c>
-      <c r="D283" s="6" t="inlineStr"/>
+      <c r="D283" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E283" s="6" t="inlineStr"/>
     </row>
     <row r="284">
@@ -4898,7 +5451,9 @@
           <t>Poor Responsive Design for Map Height</t>
         </is>
       </c>
-      <c r="D285" s="6" t="inlineStr"/>
+      <c r="D285" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E285" s="6" t="inlineStr"/>
     </row>
     <row r="286">
@@ -4913,7 +5468,9 @@
           <t>Inconsistent Spacing and Padding</t>
         </is>
       </c>
-      <c r="D286" s="6" t="inlineStr"/>
+      <c r="D286" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E286" s="6" t="inlineStr"/>
     </row>
     <row r="287">
@@ -4928,7 +5485,9 @@
           <t>No keyboard shortcuts</t>
         </is>
       </c>
-      <c r="D287" s="6" t="inlineStr"/>
+      <c r="D287" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E287" s="6" t="inlineStr"/>
     </row>
     <row r="288">
@@ -4943,7 +5502,9 @@
           <t>Inconsistent component styling</t>
         </is>
       </c>
-      <c r="D288" s="6" t="inlineStr"/>
+      <c r="D288" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E288" s="6" t="inlineStr"/>
     </row>
     <row r="289">
@@ -4958,7 +5519,9 @@
           <t>Download links overlap footer</t>
         </is>
       </c>
-      <c r="D289" s="6" t="inlineStr"/>
+      <c r="D289" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E289" s="6" t="inlineStr"/>
     </row>
     <row r="290">
@@ -4973,7 +5536,9 @@
           <t>No loading progress indicator</t>
         </is>
       </c>
-      <c r="D290" s="6" t="inlineStr"/>
+      <c r="D290" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E290" s="6" t="inlineStr"/>
     </row>
     <row r="291">
@@ -4988,7 +5553,9 @@
           <t>Inconsistent date formats</t>
         </is>
       </c>
-      <c r="D291" s="6" t="inlineStr"/>
+      <c r="D291" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E291" s="6" t="inlineStr"/>
     </row>
     <row r="292">
@@ -5003,7 +5570,9 @@
           <t>Text truncation issues</t>
         </is>
       </c>
-      <c r="D292" s="6" t="inlineStr"/>
+      <c r="D292" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E292" s="6" t="inlineStr"/>
     </row>
     <row r="293">
@@ -5018,7 +5587,9 @@
           <t>Inactive state unclear</t>
         </is>
       </c>
-      <c r="D293" s="6" t="inlineStr"/>
+      <c r="D293" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E293" s="6" t="inlineStr"/>
     </row>
     <row r="294">
@@ -5033,7 +5604,9 @@
           <t>Missing Favicon Fallbacks</t>
         </is>
       </c>
-      <c r="D294" s="6" t="inlineStr"/>
+      <c r="D294" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E294" s="6" t="inlineStr"/>
     </row>
     <row r="295">
@@ -5048,7 +5621,9 @@
           <t>No Language Attribute Fallback</t>
         </is>
       </c>
-      <c r="D295" s="6" t="inlineStr"/>
+      <c r="D295" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E295" s="6" t="inlineStr"/>
     </row>
     <row r="296">
@@ -5063,7 +5638,9 @@
           <t>No Cache-Busting for Static Assets</t>
         </is>
       </c>
-      <c r="D296" s="6" t="inlineStr"/>
+      <c r="D296" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E296" s="6" t="inlineStr"/>
     </row>
     <row r="297">
@@ -5078,7 +5655,9 @@
           <t>Multiple loading states</t>
         </is>
       </c>
-      <c r="D297" s="6" t="inlineStr"/>
+      <c r="D297" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E297" s="6" t="inlineStr"/>
     </row>
     <row r="298">
@@ -5093,7 +5672,9 @@
           <t>Pixelated avatar images</t>
         </is>
       </c>
-      <c r="D298" s="6" t="inlineStr"/>
+      <c r="D298" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E298" s="6" t="inlineStr"/>
     </row>
     <row r="299">
@@ -5108,7 +5689,9 @@
           <t>Header logo cut off</t>
         </is>
       </c>
-      <c r="D299" s="6" t="inlineStr"/>
+      <c r="D299" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E299" s="6" t="inlineStr"/>
     </row>
     <row r="300">
@@ -5123,7 +5706,9 @@
           <t>No breadcrumbs</t>
         </is>
       </c>
-      <c r="D300" s="6" t="inlineStr"/>
+      <c r="D300" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E300" s="6" t="inlineStr"/>
     </row>
     <row r="301">
@@ -5138,7 +5723,9 @@
           <t>Button sizes inconsistent</t>
         </is>
       </c>
-      <c r="D301" s="6" t="inlineStr"/>
+      <c r="D301" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E301" s="6" t="inlineStr"/>
     </row>
     <row r="302">
@@ -5153,7 +5740,9 @@
           <t>No skip navigation</t>
         </is>
       </c>
-      <c r="D302" s="6" t="inlineStr"/>
+      <c r="D302" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E302" s="6" t="inlineStr"/>
     </row>
     <row r="303">
@@ -5172,7 +5761,9 @@
           <t>Insecure Password Reset Flow</t>
         </is>
       </c>
-      <c r="D303" s="6" t="inlineStr"/>
+      <c r="D303" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E303" s="6" t="inlineStr"/>
     </row>
     <row r="304">
@@ -5187,7 +5778,9 @@
           <t>Weak Password Requirements</t>
         </is>
       </c>
-      <c r="D304" s="6" t="inlineStr"/>
+      <c r="D304" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E304" s="6" t="inlineStr"/>
     </row>
     <row r="305">
@@ -5202,7 +5795,9 @@
           <t>No CSRF Protection Visible</t>
         </is>
       </c>
-      <c r="D305" s="6" t="inlineStr"/>
+      <c r="D305" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E305" s="6" t="inlineStr"/>
     </row>
     <row r="306">
@@ -5217,7 +5812,9 @@
           <t>Hardcoded API URLs in Chat</t>
         </is>
       </c>
-      <c r="D306" s="6" t="inlineStr"/>
+      <c r="D306" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E306" s="6" t="inlineStr"/>
     </row>
     <row r="307">
@@ -5232,7 +5829,9 @@
           <t>Language Selection Stored in localStorage Without Validation</t>
         </is>
       </c>
-      <c r="D307" s="6" t="inlineStr"/>
+      <c r="D307" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E307" s="6" t="inlineStr"/>
     </row>
     <row r="308">
@@ -5247,7 +5846,9 @@
           <t>No Session Timeout Implementation</t>
         </is>
       </c>
-      <c r="D308" s="6" t="inlineStr"/>
+      <c r="D308" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E308" s="6" t="inlineStr"/>
     </row>
     <row r="309">
@@ -5262,7 +5863,9 @@
           <t>Axios Interceptor Initialized Multiple Times</t>
         </is>
       </c>
-      <c r="D309" s="6" t="inlineStr"/>
+      <c r="D309" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E309" s="6" t="inlineStr"/>
     </row>
     <row r="310">
@@ -5277,7 +5880,9 @@
           <t>Dependency Array Issues in useEffect</t>
         </is>
       </c>
-      <c r="D310" s="6" t="inlineStr"/>
+      <c r="D310" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E310" s="6" t="inlineStr"/>
     </row>
     <row r="311">
@@ -5292,7 +5897,9 @@
           <t>Improper Error Message Construction</t>
         </is>
       </c>
-      <c r="D311" s="6" t="inlineStr"/>
+      <c r="D311" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E311" s="6" t="inlineStr"/>
     </row>
     <row r="312">
@@ -5307,7 +5914,9 @@
           <t>Commented Out Critical Code</t>
         </is>
       </c>
-      <c r="D312" s="6" t="inlineStr"/>
+      <c r="D312" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E312" s="6" t="inlineStr"/>
     </row>
     <row r="313">
@@ -5322,7 +5931,9 @@
           <t>No Loading States for Async Operations</t>
         </is>
       </c>
-      <c r="D313" s="6" t="inlineStr"/>
+      <c r="D313" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E313" s="6" t="inlineStr"/>
     </row>
     <row r="314">
@@ -5337,7 +5948,9 @@
           <t>No Privacy Policy Link</t>
         </is>
       </c>
-      <c r="D314" s="6" t="inlineStr"/>
+      <c r="D314" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E314" s="6" t="inlineStr"/>
     </row>
     <row r="315">
@@ -5352,7 +5965,9 @@
           <t>No Cookie Consent Mechanism</t>
         </is>
       </c>
-      <c r="D315" s="6" t="inlineStr"/>
+      <c r="D315" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E315" s="6" t="inlineStr"/>
     </row>
     <row r="316">
@@ -5367,7 +5982,9 @@
           <t>No Data Export Functionality</t>
         </is>
       </c>
-      <c r="D316" s="6" t="inlineStr"/>
+      <c r="D316" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E316" s="6" t="inlineStr"/>
     </row>
     <row r="317">
@@ -5382,7 +5999,9 @@
           <t>Missing Input Length Validation</t>
         </is>
       </c>
-      <c r="D317" s="6" t="inlineStr"/>
+      <c r="D317" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E317" s="6" t="inlineStr"/>
     </row>
     <row r="318">
@@ -5397,7 +6016,9 @@
           <t>Source Maps Enabled in Production</t>
         </is>
       </c>
-      <c r="D318" s="6" t="inlineStr"/>
+      <c r="D318" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E318" s="6" t="inlineStr"/>
     </row>
     <row r="319">
@@ -5412,7 +6033,9 @@
           <t>Incorrect Type Checking</t>
         </is>
       </c>
-      <c r="D319" s="6" t="inlineStr"/>
+      <c r="D319" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E319" s="6" t="inlineStr"/>
     </row>
     <row r="320">
@@ -5427,7 +6050,9 @@
           <t>Potential Null Reference Errors</t>
         </is>
       </c>
-      <c r="D320" s="6" t="inlineStr"/>
+      <c r="D320" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E320" s="6" t="inlineStr"/>
     </row>
     <row r="321">
@@ -5442,7 +6067,9 @@
           <t>Duplicate Package Managers</t>
         </is>
       </c>
-      <c r="D321" s="6" t="inlineStr"/>
+      <c r="D321" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E321" s="6" t="inlineStr"/>
     </row>
     <row r="322">
@@ -5457,7 +6084,9 @@
           <t>Inconsistent Import Organization</t>
         </is>
       </c>
-      <c r="D322" s="6" t="inlineStr"/>
+      <c r="D322" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E322" s="6" t="inlineStr"/>
     </row>
     <row r="323">
@@ -5472,7 +6101,9 @@
           <t>TODO Comments Without Context</t>
         </is>
       </c>
-      <c r="D323" s="6" t="inlineStr"/>
+      <c r="D323" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E323" s="6" t="inlineStr"/>
     </row>
     <row r="324">
@@ -5487,7 +6118,9 @@
           <t>Magic Numbers Throughout Code</t>
         </is>
       </c>
-      <c r="D324" s="6" t="inlineStr"/>
+      <c r="D324" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E324" s="6" t="inlineStr"/>
     </row>
     <row r="325">
@@ -5502,7 +6135,9 @@
           <t>No PropTypes or TypeScript</t>
         </is>
       </c>
-      <c r="D325" s="6" t="inlineStr"/>
+      <c r="D325" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E325" s="6" t="inlineStr"/>
     </row>
     <row r="326">
@@ -5517,7 +6152,9 @@
           <t>Inconsistent File Naming</t>
         </is>
       </c>
-      <c r="D326" s="6" t="inlineStr"/>
+      <c r="D326" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E326" s="6" t="inlineStr"/>
     </row>
     <row r="327">
@@ -5532,7 +6169,9 @@
           <t>No Account Deletion Option</t>
         </is>
       </c>
-      <c r="D327" s="6" t="inlineStr"/>
+      <c r="D327" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E327" s="6" t="inlineStr"/>
     </row>
     <row r="328">
@@ -5551,7 +6190,9 @@
           <t>Missing Audit Logging for Sensitive Operations</t>
         </is>
       </c>
-      <c r="D328" s="6" t="inlineStr"/>
+      <c r="D328" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E328" s="6" t="inlineStr"/>
     </row>
     <row r="329">
@@ -5566,7 +6207,9 @@
           <t>Missing Request Size Limits</t>
         </is>
       </c>
-      <c r="D329" s="6" t="inlineStr"/>
+      <c r="D329" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E329" s="6" t="inlineStr"/>
     </row>
     <row r="330">
@@ -5581,7 +6224,9 @@
           <t>Commented Out Code</t>
         </is>
       </c>
-      <c r="D330" s="6" t="inlineStr"/>
+      <c r="D330" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E330" s="6" t="inlineStr"/>
     </row>
     <row r="331">
@@ -5596,7 +6241,9 @@
           <t>Excessive Exception Handling with Print</t>
         </is>
       </c>
-      <c r="D331" s="6" t="inlineStr"/>
+      <c r="D331" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E331" s="6" t="inlineStr"/>
     </row>
     <row r="332">
@@ -5611,7 +6258,9 @@
           <t>Requests Version Missing Security Patches</t>
         </is>
       </c>
-      <c r="D332" s="6" t="inlineStr"/>
+      <c r="D332" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E332" s="6" t="inlineStr"/>
     </row>
     <row r="333">
@@ -5626,7 +6275,9 @@
           <t>Inconsistent Naming Conventions</t>
         </is>
       </c>
-      <c r="D333" s="6" t="inlineStr"/>
+      <c r="D333" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E333" s="6" t="inlineStr"/>
     </row>
     <row r="334">
@@ -5641,7 +6292,9 @@
           <t>Missing Database Indexes</t>
         </is>
       </c>
-      <c r="D334" s="6" t="inlineStr"/>
+      <c r="D334" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E334" s="6" t="inlineStr"/>
     </row>
     <row r="335">
@@ -5660,7 +6313,9 @@
           <t>Throttle Rates Set to 1000/min anon and 5000/sec user</t>
         </is>
       </c>
-      <c r="D335" s="6" t="inlineStr"/>
+      <c r="D335" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E335" s="6" t="inlineStr"/>
     </row>
     <row r="336">
@@ -5675,7 +6330,9 @@
           <t>Payment Callback Endpoints Dump Query Strings to Logs</t>
         </is>
       </c>
-      <c r="D336" s="6" t="inlineStr"/>
+      <c r="D336" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E336" s="6" t="inlineStr"/>
     </row>
     <row r="337">
@@ -5690,7 +6347,9 @@
           <t>Trip Creation Busy-Waits on Cache Without Timeout</t>
         </is>
       </c>
-      <c r="D337" s="6" t="inlineStr"/>
+      <c r="D337" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E337" s="6" t="inlineStr"/>
     </row>
     <row r="338">
@@ -5705,7 +6364,9 @@
           <t>clean_drivers_data Zips Unrelated Firestore Collections</t>
         </is>
       </c>
-      <c r="D338" s="6" t="inlineStr"/>
+      <c r="D338" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E338" s="6" t="inlineStr"/>
     </row>
     <row r="339">
@@ -5724,7 +6385,9 @@
           <t>Missing empty states in wallet and trip history screens</t>
         </is>
       </c>
-      <c r="D339" s="6" t="inlineStr"/>
+      <c r="D339" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E339" s="6" t="inlineStr"/>
     </row>
     <row r="340">
@@ -5739,7 +6402,9 @@
           <t>No visual indication of trip request timeout countdown</t>
         </is>
       </c>
-      <c r="D340" s="6" t="inlineStr"/>
+      <c r="D340" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E340" s="6" t="inlineStr"/>
     </row>
     <row r="341">
@@ -5754,7 +6419,9 @@
           <t>Text too small for driving</t>
         </is>
       </c>
-      <c r="D341" s="6" t="inlineStr"/>
+      <c r="D341" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E341" s="6" t="inlineStr"/>
     </row>
     <row r="342">
@@ -5769,7 +6436,9 @@
           <t>Inconsistent iOS/Android UI</t>
         </is>
       </c>
-      <c r="D342" s="6" t="inlineStr"/>
+      <c r="D342" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E342" s="6" t="inlineStr"/>
     </row>
     <row r="343">
@@ -5784,7 +6453,9 @@
           <t>Earnings chart unreadable</t>
         </is>
       </c>
-      <c r="D343" s="6" t="inlineStr"/>
+      <c r="D343" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E343" s="6" t="inlineStr"/>
     </row>
     <row r="344">
@@ -5799,7 +6470,9 @@
           <t>Confusing tab navigation</t>
         </is>
       </c>
-      <c r="D344" s="6" t="inlineStr"/>
+      <c r="D344" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E344" s="6" t="inlineStr"/>
     </row>
     <row r="345">
@@ -5814,7 +6487,9 @@
           <t>Icon size variations</t>
         </is>
       </c>
-      <c r="D345" s="6" t="inlineStr"/>
+      <c r="D345" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E345" s="6" t="inlineStr"/>
     </row>
     <row r="346">
@@ -5829,7 +6504,9 @@
           <t>Landscape mode broken</t>
         </is>
       </c>
-      <c r="D346" s="6" t="inlineStr"/>
+      <c r="D346" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E346" s="6" t="inlineStr"/>
     </row>
     <row r="347">
@@ -5844,7 +6521,9 @@
           <t>Night mode missing</t>
         </is>
       </c>
-      <c r="D347" s="6" t="inlineStr"/>
+      <c r="D347" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E347" s="6" t="inlineStr"/>
     </row>
     <row r="348">
@@ -5859,7 +6538,9 @@
           <t>Small touch targets</t>
         </is>
       </c>
-      <c r="D348" s="6" t="inlineStr"/>
+      <c r="D348" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E348" s="6" t="inlineStr"/>
     </row>
     <row r="349">
@@ -5874,7 +6555,9 @@
           <t>Overlapping elements in RTL</t>
         </is>
       </c>
-      <c r="D349" s="6" t="inlineStr"/>
+      <c r="D349" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E349" s="6" t="inlineStr"/>
     </row>
     <row r="350">
@@ -5889,7 +6572,9 @@
           <t>Unused imports and dependencies bloat APK size</t>
         </is>
       </c>
-      <c r="D350" s="6" t="inlineStr"/>
+      <c r="D350" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E350" s="6" t="inlineStr"/>
     </row>
     <row r="351">
@@ -5904,7 +6589,9 @@
           <t>Multiple button styles</t>
         </is>
       </c>
-      <c r="D351" s="6" t="inlineStr"/>
+      <c r="D351" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E351" s="6" t="inlineStr"/>
     </row>
     <row r="352">
@@ -5919,7 +6606,9 @@
           <t>Outdated Material Design</t>
         </is>
       </c>
-      <c r="D352" s="6" t="inlineStr"/>
+      <c r="D352" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E352" s="6" t="inlineStr"/>
     </row>
     <row r="353">
@@ -5934,7 +6623,9 @@
           <t>Profile image distorted</t>
         </is>
       </c>
-      <c r="D353" s="6" t="inlineStr"/>
+      <c r="D353" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E353" s="6" t="inlineStr"/>
     </row>
     <row r="354">
@@ -5949,7 +6640,9 @@
           <t>Font inconsistency</t>
         </is>
       </c>
-      <c r="D354" s="6" t="inlineStr"/>
+      <c r="D354" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E354" s="6" t="inlineStr"/>
     </row>
     <row r="355">
@@ -5968,7 +6661,9 @@
           <t>Lack of Const Constructors Missing `const` Keywords on Immutable Widgets</t>
         </is>
       </c>
-      <c r="D355" s="6" t="inlineStr"/>
+      <c r="D355" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E355" s="6" t="inlineStr"/>
     </row>
     <row r="356">
@@ -5983,7 +6678,9 @@
           <t>Hardcoded Strings Not Using Localization</t>
         </is>
       </c>
-      <c r="D356" s="6" t="inlineStr"/>
+      <c r="D356" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E356" s="6" t="inlineStr"/>
     </row>
     <row r="357">
@@ -5998,7 +6695,9 @@
           <t>Misaligned car class images</t>
         </is>
       </c>
-      <c r="D357" s="6" t="inlineStr"/>
+      <c r="D357" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E357" s="6" t="inlineStr"/>
     </row>
     <row r="358">
@@ -6013,7 +6712,9 @@
           <t>Three different modal styles</t>
         </is>
       </c>
-      <c r="D358" s="6" t="inlineStr"/>
+      <c r="D358" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E358" s="6" t="inlineStr"/>
     </row>
     <row r="359">
@@ -6028,7 +6729,9 @@
           <t>Time picker unusable in landscape</t>
         </is>
       </c>
-      <c r="D359" s="6" t="inlineStr"/>
+      <c r="D359" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E359" s="6" t="inlineStr"/>
     </row>
     <row r="360">
@@ -6043,7 +6746,9 @@
           <t>Buttons too small</t>
         </is>
       </c>
-      <c r="D360" s="6" t="inlineStr"/>
+      <c r="D360" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E360" s="6" t="inlineStr"/>
     </row>
     <row r="361">
@@ -6058,7 +6763,9 @@
           <t>Overlapping price estimates</t>
         </is>
       </c>
-      <c r="D361" s="6" t="inlineStr"/>
+      <c r="D361" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E361" s="6" t="inlineStr"/>
     </row>
     <row r="362">
@@ -6073,7 +6780,9 @@
           <t>Deep link handling broken</t>
         </is>
       </c>
-      <c r="D362" s="6" t="inlineStr"/>
+      <c r="D362" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E362" s="6" t="inlineStr"/>
     </row>
     <row r="363">
@@ -6088,7 +6797,9 @@
           <t>Inconsistent Color Usage Colors Not Consistently Using Theme</t>
         </is>
       </c>
-      <c r="D363" s="6" t="inlineStr"/>
+      <c r="D363" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E363" s="6" t="inlineStr"/>
     </row>
     <row r="364">
@@ -6103,7 +6814,9 @@
           <t>No Haptic Feedback Missing Tactile Feedback on Interactions</t>
         </is>
       </c>
-      <c r="D364" s="6" t="inlineStr"/>
+      <c r="D364" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E364" s="6" t="inlineStr"/>
     </row>
     <row r="365">
@@ -6118,7 +6831,9 @@
           <t>No Pull-to-Refresh Functionality Data Lists Cannot Be Refreshed by User</t>
         </is>
       </c>
-      <c r="D365" s="6" t="inlineStr"/>
+      <c r="D365" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E365" s="6" t="inlineStr"/>
     </row>
     <row r="366">
@@ -6133,7 +6848,9 @@
           <t>No Dark Mode Support Only Light Theme Implemented</t>
         </is>
       </c>
-      <c r="D366" s="6" t="inlineStr"/>
+      <c r="D366" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E366" s="6" t="inlineStr"/>
     </row>
     <row r="367">
@@ -6148,7 +6865,9 @@
           <t>Missing Performance Monitoring No Production Performance Tracking</t>
         </is>
       </c>
-      <c r="D367" s="6" t="inlineStr"/>
+      <c r="D367" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E367" s="6" t="inlineStr"/>
     </row>
     <row r="368">
@@ -6163,7 +6882,9 @@
           <t>No Onboarding Completion Tracking Onboarding State Not Properly Tracked</t>
         </is>
       </c>
-      <c r="D368" s="6" t="inlineStr"/>
+      <c r="D368" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E368" s="6" t="inlineStr"/>
     </row>
     <row r="369">
@@ -6178,7 +6899,9 @@
           <t>Inconsistent Color Usage</t>
         </is>
       </c>
-      <c r="D369" s="6" t="inlineStr"/>
+      <c r="D369" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E369" s="6" t="inlineStr"/>
     </row>
     <row r="370">
@@ -6193,7 +6916,9 @@
           <t>No Haptic Feedback</t>
         </is>
       </c>
-      <c r="D370" s="6" t="inlineStr"/>
+      <c r="D370" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E370" s="6" t="inlineStr"/>
     </row>
     <row r="371">
@@ -6208,7 +6933,9 @@
           <t>Inconsistent Border Radius Values</t>
         </is>
       </c>
-      <c r="D371" s="6" t="inlineStr"/>
+      <c r="D371" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E371" s="6" t="inlineStr"/>
     </row>
     <row r="372">
@@ -6223,7 +6950,9 @@
           <t>No Code Splitting or Lazy Loading</t>
         </is>
       </c>
-      <c r="D372" s="6" t="inlineStr"/>
+      <c r="D372" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E372" s="6" t="inlineStr"/>
     </row>
     <row r="373">
@@ -6238,7 +6967,9 @@
           <t>No Pull-to-Refresh Functionality</t>
         </is>
       </c>
-      <c r="D373" s="6" t="inlineStr"/>
+      <c r="D373" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E373" s="6" t="inlineStr"/>
     </row>
     <row r="374">
@@ -6253,7 +6984,9 @@
           <t>No Dark Mode Support</t>
         </is>
       </c>
-      <c r="D374" s="6" t="inlineStr"/>
+      <c r="D374" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E374" s="6" t="inlineStr"/>
     </row>
     <row r="375">
@@ -6268,7 +7001,9 @@
           <t>Missing Performance Monitoring</t>
         </is>
       </c>
-      <c r="D375" s="6" t="inlineStr"/>
+      <c r="D375" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E375" s="6" t="inlineStr"/>
     </row>
     <row r="376">
@@ -6283,7 +7018,9 @@
           <t>No Onboarding Completion Tracking</t>
         </is>
       </c>
-      <c r="D376" s="6" t="inlineStr"/>
+      <c r="D376" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E376" s="6" t="inlineStr"/>
     </row>
     <row r="377">
@@ -6298,7 +7035,9 @@
           <t>Brand colors incorrect</t>
         </is>
       </c>
-      <c r="D377" s="6" t="inlineStr"/>
+      <c r="D377" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E377" s="6" t="inlineStr"/>
     </row>
     <row r="378">
@@ -6313,7 +7052,9 @@
           <t>Blurry icons on high DPI</t>
         </is>
       </c>
-      <c r="D378" s="6" t="inlineStr"/>
+      <c r="D378" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E378" s="6" t="inlineStr"/>
     </row>
     <row r="379">
@@ -6328,7 +7069,9 @@
           <t>Rating stars too close</t>
         </is>
       </c>
-      <c r="D379" s="6" t="inlineStr"/>
+      <c r="D379" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E379" s="6" t="inlineStr"/>
     </row>
     <row r="380">
@@ -6343,7 +7086,9 @@
           <t>Animation speeds vary</t>
         </is>
       </c>
-      <c r="D380" s="6" t="inlineStr"/>
+      <c r="D380" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E380" s="6" t="inlineStr"/>
     </row>
     <row r="381">
@@ -6358,7 +7103,9 @@
           <t>Receipt layout broken</t>
         </is>
       </c>
-      <c r="D381" s="6" t="inlineStr"/>
+      <c r="D381" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E381" s="6" t="inlineStr"/>
     </row>
     <row r="382">
@@ -6377,7 +7124,9 @@
           <t>No Aria Labels on Interactive Elements</t>
         </is>
       </c>
-      <c r="D382" s="6" t="inlineStr"/>
+      <c r="D382" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E382" s="6" t="inlineStr"/>
     </row>
     <row r="383">
@@ -6392,7 +7141,9 @@
           <t>Missing Alt Text on Images</t>
         </is>
       </c>
-      <c r="D383" s="6" t="inlineStr"/>
+      <c r="D383" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E383" s="6" t="inlineStr"/>
     </row>
     <row r="384">
@@ -6407,7 +7158,9 @@
           <t>No Focus Management After Modal Close</t>
         </is>
       </c>
-      <c r="D384" s="6" t="inlineStr"/>
+      <c r="D384" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E384" s="6" t="inlineStr"/>
     </row>
     <row r="385">
@@ -6422,7 +7175,9 @@
           <t>Hardcoded Strings Not Internationalized</t>
         </is>
       </c>
-      <c r="D385" s="6" t="inlineStr"/>
+      <c r="D385" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E385" s="6" t="inlineStr"/>
     </row>
     <row r="386">
@@ -6437,7 +7192,9 @@
           <t>No Empty States for Data Grids</t>
         </is>
       </c>
-      <c r="D386" s="6" t="inlineStr"/>
+      <c r="D386" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E386" s="6" t="inlineStr"/>
     </row>
     <row r="387">
@@ -6452,7 +7209,9 @@
           <t>Error Messages Too Technical</t>
         </is>
       </c>
-      <c r="D387" s="6" t="inlineStr"/>
+      <c r="D387" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E387" s="6" t="inlineStr"/>
     </row>
     <row r="388">
@@ -6467,7 +7226,9 @@
           <t>Inconsistent Button Disabled States</t>
         </is>
       </c>
-      <c r="D388" s="6" t="inlineStr"/>
+      <c r="D388" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E388" s="6" t="inlineStr"/>
     </row>
     <row r="389">
@@ -6482,7 +7243,9 @@
           <t>Inconsistent Date Formatting</t>
         </is>
       </c>
-      <c r="D389" s="6" t="inlineStr"/>
+      <c r="D389" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E389" s="6" t="inlineStr"/>
     </row>
     <row r="390">
@@ -6497,7 +7260,9 @@
           <t>Mobile Responsiveness Issues</t>
         </is>
       </c>
-      <c r="D390" s="6" t="inlineStr"/>
+      <c r="D390" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E390" s="6" t="inlineStr"/>
     </row>
     <row r="391">
@@ -6512,7 +7277,9 @@
           <t>Inconsistent button styles</t>
         </is>
       </c>
-      <c r="D391" s="6" t="inlineStr"/>
+      <c r="D391" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E391" s="6" t="inlineStr"/>
     </row>
     <row r="392">
@@ -6527,7 +7294,9 @@
           <t>Three different loading spinners</t>
         </is>
       </c>
-      <c r="D392" s="6" t="inlineStr"/>
+      <c r="D392" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E392" s="6" t="inlineStr"/>
     </row>
     <row r="393">
@@ -6542,7 +7311,9 @@
           <t>Table columns misaligned with headers</t>
         </is>
       </c>
-      <c r="D393" s="6" t="inlineStr"/>
+      <c r="D393" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E393" s="6" t="inlineStr"/>
     </row>
     <row r="394">
@@ -6557,7 +7328,9 @@
           <t>No breadcrumb navigation</t>
         </is>
       </c>
-      <c r="D394" s="6" t="inlineStr"/>
+      <c r="D394" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E394" s="6" t="inlineStr"/>
     </row>
     <row r="395">
@@ -6572,7 +7345,9 @@
           <t>Missing ARIA labels</t>
         </is>
       </c>
-      <c r="D395" s="6" t="inlineStr"/>
+      <c r="D395" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E395" s="6" t="inlineStr"/>
     </row>
     <row r="396">
@@ -6587,7 +7362,9 @@
           <t>Status colors not colorblind safe</t>
         </is>
       </c>
-      <c r="D396" s="6" t="inlineStr"/>
+      <c r="D396" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E396" s="6" t="inlineStr"/>
     </row>
     <row r="397">
@@ -6602,7 +7379,9 @@
           <t>Horizontal scroll on medium screens</t>
         </is>
       </c>
-      <c r="D397" s="6" t="inlineStr"/>
+      <c r="D397" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E397" s="6" t="inlineStr"/>
     </row>
     <row r="398">
@@ -6617,7 +7396,9 @@
           <t>Inconsistent font sizes</t>
         </is>
       </c>
-      <c r="D398" s="6" t="inlineStr"/>
+      <c r="D398" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E398" s="6" t="inlineStr"/>
     </row>
     <row r="399">
@@ -6632,7 +7413,9 @@
           <t>Mixed icon libraries</t>
         </is>
       </c>
-      <c r="D399" s="6" t="inlineStr"/>
+      <c r="D399" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E399" s="6" t="inlineStr"/>
     </row>
     <row r="400">
@@ -6647,7 +7430,9 @@
           <t>Modal backdrop z-index issues</t>
         </is>
       </c>
-      <c r="D400" s="6" t="inlineStr"/>
+      <c r="D400" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E400" s="6" t="inlineStr"/>
     </row>
     <row r="401">
@@ -6662,7 +7447,9 @@
           <t>Deep links don't work</t>
         </is>
       </c>
-      <c r="D401" s="6" t="inlineStr"/>
+      <c r="D401" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E401" s="6" t="inlineStr"/>
     </row>
     <row r="402">
@@ -6677,7 +7464,9 @@
           <t>No Confirmation on Destructive Actions</t>
         </is>
       </c>
-      <c r="D402" s="6" t="inlineStr"/>
+      <c r="D402" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E402" s="6" t="inlineStr"/>
     </row>
     <row r="403">
@@ -6692,7 +7481,9 @@
           <t>Inconsistent spacing between sections</t>
         </is>
       </c>
-      <c r="D403" s="6" t="inlineStr"/>
+      <c r="D403" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E403" s="6" t="inlineStr"/>
     </row>
     <row r="404">
@@ -6707,7 +7498,9 @@
           <t>Footer overlaps content</t>
         </is>
       </c>
-      <c r="D404" s="6" t="inlineStr"/>
+      <c r="D404" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E404" s="6" t="inlineStr"/>
     </row>
     <row r="405">
@@ -6722,7 +7515,9 @@
           <t>Print styles missing</t>
         </is>
       </c>
-      <c r="D405" s="6" t="inlineStr"/>
+      <c r="D405" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E405" s="6" t="inlineStr"/>
     </row>
     <row r="406">
@@ -6737,7 +7532,9 @@
           <t>Brand colors inconsistent</t>
         </is>
       </c>
-      <c r="D406" s="6" t="inlineStr"/>
+      <c r="D406" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E406" s="6" t="inlineStr"/>
     </row>
     <row r="407">
@@ -6752,7 +7549,9 @@
           <t>Tooltip styles vary</t>
         </is>
       </c>
-      <c r="D407" s="6" t="inlineStr"/>
+      <c r="D407" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E407" s="6" t="inlineStr"/>
     </row>
     <row r="408">
@@ -6771,7 +7570,9 @@
           <t>Driver pagination returns nested car/account blocks that break table layouts</t>
         </is>
       </c>
-      <c r="D408" s="6" t="inlineStr"/>
+      <c r="D408" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E408" s="6" t="inlineStr"/>
     </row>
     <row r="409">
@@ -6786,7 +7587,9 @@
           <t>Passenger pagination omits total counts so grid height jumps</t>
         </is>
       </c>
-      <c r="D409" s="6" t="inlineStr"/>
+      <c r="D409" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E409" s="6" t="inlineStr"/>
     </row>
     <row r="410">
@@ -6801,7 +7604,9 @@
           <t>Passenger pagination performs expensive regex on phone numbers</t>
         </is>
       </c>
-      <c r="D410" s="6" t="inlineStr"/>
+      <c r="D410" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E410" s="6" t="inlineStr"/>
     </row>
     <row r="411">
@@ -6816,7 +7621,9 @@
           <t>Driver wallet export blocks request thread</t>
         </is>
       </c>
-      <c r="D411" s="6" t="inlineStr"/>
+      <c r="D411" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E411" s="6" t="inlineStr"/>
     </row>
     <row r="412">
@@ -6831,7 +7638,9 @@
           <t>Push notifications skip severity mapping</t>
         </is>
       </c>
-      <c r="D412" s="6" t="inlineStr"/>
+      <c r="D412" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E412" s="6" t="inlineStr"/>
     </row>
     <row r="413">
@@ -6846,7 +7655,9 @@
           <t>Notification copy mixes sentence case and uppercase IDs</t>
         </is>
       </c>
-      <c r="D413" s="6" t="inlineStr"/>
+      <c r="D413" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E413" s="6" t="inlineStr"/>
     </row>
     <row r="414">
@@ -6861,7 +7672,9 @@
           <t>Driver pagination lacks next or prev metadata</t>
         </is>
       </c>
-      <c r="D414" s="6" t="inlineStr"/>
+      <c r="D414" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E414" s="6" t="inlineStr"/>
     </row>
     <row r="415">
@@ -6876,7 +7689,9 @@
           <t>Passenger search returns HTTP 200 with string Not Found</t>
         </is>
       </c>
-      <c r="D415" s="6" t="inlineStr"/>
+      <c r="D415" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E415" s="6" t="inlineStr"/>
     </row>
     <row r="416">
@@ -6891,7 +7706,9 @@
           <t>Error and cancel callbacks log to console instead of surfacing UI feedback</t>
         </is>
       </c>
-      <c r="D416" s="6" t="inlineStr"/>
+      <c r="D416" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E416" s="6" t="inlineStr"/>
     </row>
     <row r="417">
@@ -6906,7 +7723,9 @@
           <t>SMS encoder drops fallback language metadata</t>
         </is>
       </c>
-      <c r="D417" s="6" t="inlineStr"/>
+      <c r="D417" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E417" s="6" t="inlineStr"/>
     </row>
     <row r="418">
@@ -6921,7 +7740,9 @@
           <t>Dashboard login gives identical errors for deleted and suspended users</t>
         </is>
       </c>
-      <c r="D418" s="6" t="inlineStr"/>
+      <c r="D418" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E418" s="6" t="inlineStr"/>
     </row>
     <row r="419">
@@ -6936,7 +7757,9 @@
           <t>AuthTokenView logs users out mid session with generic 401</t>
         </is>
       </c>
-      <c r="D419" s="6" t="inlineStr"/>
+      <c r="D419" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E419" s="6" t="inlineStr"/>
     </row>
     <row r="420">
@@ -6951,7 +7774,9 @@
           <t>Passenger pagination returns raw ValueError traces</t>
         </is>
       </c>
-      <c r="D420" s="6" t="inlineStr"/>
+      <c r="D420" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E420" s="6" t="inlineStr"/>
     </row>
     <row r="421">
@@ -6966,7 +7791,9 @@
           <t>GarageTrips requires magic filter_type numbers with no descriptors</t>
         </is>
       </c>
-      <c r="D421" s="6" t="inlineStr"/>
+      <c r="D421" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E421" s="6" t="inlineStr"/>
     </row>
     <row r="422">
@@ -6981,7 +7808,9 @@
           <t>TripInfoView returns ungrouped fare details</t>
         </is>
       </c>
-      <c r="D422" s="6" t="inlineStr"/>
+      <c r="D422" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E422" s="6" t="inlineStr"/>
     </row>
     <row r="423">
@@ -6996,7 +7825,9 @@
           <t>Driver wallet export reorders columns server side</t>
         </is>
       </c>
-      <c r="D423" s="6" t="inlineStr"/>
+      <c r="D423" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E423" s="6" t="inlineStr"/>
     </row>
     <row r="424">
@@ -7011,7 +7842,9 @@
           <t>Schedule trip reminders mix Arabic and English without locale tokens</t>
         </is>
       </c>
-      <c r="D424" s="6" t="inlineStr"/>
+      <c r="D424" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E424" s="6" t="inlineStr"/>
     </row>
     <row r="425">
@@ -7026,7 +7859,9 @@
           <t>SMS templates omit JTNY branding</t>
         </is>
       </c>
-      <c r="D425" s="6" t="inlineStr"/>
+      <c r="D425" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E425" s="6" t="inlineStr"/>
     </row>
     <row r="426">
@@ -7041,7 +7876,9 @@
           <t>Excel exports use default serif fonts</t>
         </is>
       </c>
-      <c r="D426" s="6" t="inlineStr"/>
+      <c r="D426" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E426" s="6" t="inlineStr"/>
     </row>
     <row r="427">
@@ -7056,7 +7893,9 @@
           <t>Auth error responses reuse backend exception text</t>
         </is>
       </c>
-      <c r="D427" s="6" t="inlineStr"/>
+      <c r="D427" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E427" s="6" t="inlineStr"/>
     </row>
     <row r="428">
@@ -7075,7 +7914,9 @@
           <t>No document title or branding on checkout page</t>
         </is>
       </c>
-      <c r="D428" s="6" t="inlineStr"/>
+      <c r="D428" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E428" s="6" t="inlineStr"/>
     </row>
     <row r="429">
@@ -7090,7 +7931,9 @@
           <t>OTP email locked to 600px with no media queries</t>
         </is>
       </c>
-      <c r="D429" s="6" t="inlineStr"/>
+      <c r="D429" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E429" s="6" t="inlineStr"/>
     </row>
     <row r="430">
@@ -7105,7 +7948,9 @@
           <t>OTP email uses generic blue palette</t>
         </is>
       </c>
-      <c r="D430" s="6" t="inlineStr"/>
+      <c r="D430" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E430" s="6" t="inlineStr"/>
     </row>
     <row r="431">
@@ -7120,7 +7965,9 @@
           <t>OTP digits spaced with 8px letter-spacing</t>
         </is>
       </c>
-      <c r="D431" s="6" t="inlineStr"/>
+      <c r="D431" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E431" s="6" t="inlineStr"/>
     </row>
     <row r="432">
@@ -7135,7 +7982,9 @@
           <t>OTP email lacks a primary action</t>
         </is>
       </c>
-      <c r="D432" s="6" t="inlineStr"/>
+      <c r="D432" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E432" s="6" t="inlineStr"/>
     </row>
     <row r="433">
@@ -7150,7 +7999,9 @@
           <t>Error and cancel callbacks only log to console</t>
         </is>
       </c>
-      <c r="D433" s="6" t="inlineStr"/>
+      <c r="D433" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E433" s="6" t="inlineStr"/>
     </row>
     <row r="434">
@@ -7165,7 +8016,9 @@
           <t>OTP email relies on color alone to signal status</t>
         </is>
       </c>
-      <c r="D434" s="6" t="inlineStr"/>
+      <c r="D434" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E434" s="6" t="inlineStr"/>
     </row>
     <row r="435">
@@ -7180,7 +8033,9 @@
           <t>Driver phone verification returns generic strings</t>
         </is>
       </c>
-      <c r="D435" s="6" t="inlineStr"/>
+      <c r="D435" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E435" s="6" t="inlineStr"/>
     </row>
     <row r="436">
@@ -7195,7 +8050,9 @@
           <t>Passenger username verification returns raw 404 text</t>
         </is>
       </c>
-      <c r="D436" s="6" t="inlineStr"/>
+      <c r="D436" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E436" s="6" t="inlineStr"/>
     </row>
     <row r="437">
@@ -7210,7 +8067,9 @@
           <t>Passenger email verification lacks fallback paths</t>
         </is>
       </c>
-      <c r="D437" s="6" t="inlineStr"/>
+      <c r="D437" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E437" s="6" t="inlineStr"/>
     </row>
     <row r="438">
@@ -7225,7 +8084,9 @@
           <t>Passenger login returns HTTP 422 with no guidance</t>
         </is>
       </c>
-      <c r="D438" s="6" t="inlineStr"/>
+      <c r="D438" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E438" s="6" t="inlineStr"/>
     </row>
     <row r="439">
@@ -7240,7 +8101,9 @@
           <t>Trip creation returns bare string when no drivers available</t>
         </is>
       </c>
-      <c r="D439" s="6" t="inlineStr"/>
+      <c r="D439" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E439" s="6" t="inlineStr"/>
     </row>
     <row r="440">
@@ -7255,7 +8118,9 @@
           <t>Checkout markup lacks skeleton loader or progress indicator</t>
         </is>
       </c>
-      <c r="D440" s="6" t="inlineStr"/>
+      <c r="D440" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E440" s="6" t="inlineStr"/>
     </row>
     <row r="441">
@@ -7270,7 +8135,9 @@
           <t>OTP email offers no support or escalation link</t>
         </is>
       </c>
-      <c r="D441" s="6" t="inlineStr"/>
+      <c r="D441" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E441" s="6" t="inlineStr"/>
     </row>
     <row r="442">
@@ -7285,7 +8152,9 @@
           <t>Hosted checkout inherits Mastercard theme</t>
         </is>
       </c>
-      <c r="D442" s="6" t="inlineStr"/>
+      <c r="D442" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E442" s="6" t="inlineStr"/>
     </row>
     <row r="443">
@@ -7300,7 +8169,9 @@
           <t>OTP template mixes inconsistent heading sizes</t>
         </is>
       </c>
-      <c r="D443" s="6" t="inlineStr"/>
+      <c r="D443" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E443" s="6" t="inlineStr"/>
     </row>
     <row r="444">
@@ -7315,7 +8186,9 @@
           <t>OTP email lacks RTL direction support</t>
         </is>
       </c>
-      <c r="D444" s="6" t="inlineStr"/>
+      <c r="D444" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E444" s="6" t="inlineStr"/>
     </row>
     <row r="445">
@@ -7330,7 +8203,9 @@
           <t>OTP header spacing assumes desktop margins</t>
         </is>
       </c>
-      <c r="D445" s="6" t="inlineStr"/>
+      <c r="D445" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E445" s="6" t="inlineStr"/>
     </row>
     <row r="446">
@@ -7349,7 +8224,9 @@
           <t>Weak Key Generation in Lists</t>
         </is>
       </c>
-      <c r="D446" s="6" t="inlineStr"/>
+      <c r="D446" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E446" s="6" t="inlineStr"/>
     </row>
     <row r="447">
@@ -7364,7 +8241,9 @@
           <t>Missing TypeScript Strict Mode Enforcement</t>
         </is>
       </c>
-      <c r="D447" s="6" t="inlineStr"/>
+      <c r="D447" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E447" s="6" t="inlineStr"/>
     </row>
     <row r="448">
@@ -7379,7 +8258,9 @@
           <t>React Query Cache Not Parameterized by Trip Inputs</t>
         </is>
       </c>
-      <c r="D448" s="6" t="inlineStr"/>
+      <c r="D448" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E448" s="6" t="inlineStr"/>
     </row>
     <row r="449">
@@ -7394,7 +8275,9 @@
           <t>Duplicate Firestore Listeners from Header + Page</t>
         </is>
       </c>
-      <c r="D449" s="6" t="inlineStr"/>
+      <c r="D449" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E449" s="6" t="inlineStr"/>
     </row>
     <row r="450">
@@ -7409,7 +8292,9 @@
           <t>Duration &amp; Distance Rows Assume Index 0 Always Exists</t>
         </is>
       </c>
-      <c r="D450" s="6" t="inlineStr"/>
+      <c r="D450" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E450" s="6" t="inlineStr"/>
     </row>
     <row r="451">
@@ -7424,7 +8309,9 @@
           <t>Commented Code in Production</t>
         </is>
       </c>
-      <c r="D451" s="6" t="inlineStr"/>
+      <c r="D451" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E451" s="6" t="inlineStr"/>
     </row>
     <row r="452">
@@ -7439,7 +8326,9 @@
           <t>Console Error in Production Code</t>
         </is>
       </c>
-      <c r="D452" s="6" t="inlineStr"/>
+      <c r="D452" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E452" s="6" t="inlineStr"/>
     </row>
     <row r="453">
@@ -7454,7 +8343,9 @@
           <t>Inconsistent Function Declaration Syntax</t>
         </is>
       </c>
-      <c r="D453" s="6" t="inlineStr"/>
+      <c r="D453" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E453" s="6" t="inlineStr"/>
     </row>
     <row r="454">
@@ -7469,7 +8360,9 @@
           <t>Missing PropTypes or Runtime Validation</t>
         </is>
       </c>
-      <c r="D454" s="6" t="inlineStr"/>
+      <c r="D454" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E454" s="6" t="inlineStr"/>
     </row>
     <row r="455">
@@ -7484,7 +8377,9 @@
           <t>Unused Import Statement</t>
         </is>
       </c>
-      <c r="D455" s="6" t="inlineStr"/>
+      <c r="D455" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E455" s="6" t="inlineStr"/>
     </row>
     <row r="456">
@@ -7499,7 +8394,9 @@
           <t>Magic Numbers in Code</t>
         </is>
       </c>
-      <c r="D456" s="6" t="inlineStr"/>
+      <c r="D456" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E456" s="6" t="inlineStr"/>
     </row>
     <row r="457">
@@ -7514,7 +8411,9 @@
           <t>Unused CSS Class Definitions</t>
         </is>
       </c>
-      <c r="D457" s="6" t="inlineStr"/>
+      <c r="D457" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E457" s="6" t="inlineStr"/>
     </row>
     <row r="458">
@@ -7529,7 +8428,9 @@
           <t>Incomplete ESLint Configuration</t>
         </is>
       </c>
-      <c r="D458" s="6" t="inlineStr"/>
+      <c r="D458" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E458" s="6" t="inlineStr"/>
     </row>
     <row r="459">
@@ -7544,7 +8445,9 @@
           <t>Unused Statement in useEffect</t>
         </is>
       </c>
-      <c r="D459" s="6" t="inlineStr"/>
+      <c r="D459" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E459" s="6" t="inlineStr"/>
     </row>
     <row r="460">
@@ -7559,7 +8462,9 @@
           <t>Mixed Quoting Styles</t>
         </is>
       </c>
-      <c r="D460" s="6" t="inlineStr"/>
+      <c r="D460" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E460" s="6" t="inlineStr"/>
     </row>
     <row r="461">
@@ -7574,7 +8479,9 @@
           <t>No TypeScript Interfaces for API Responses</t>
         </is>
       </c>
-      <c r="D461" s="6" t="inlineStr"/>
+      <c r="D461" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E461" s="6" t="inlineStr"/>
     </row>
     <row r="462">
@@ -7593,7 +8500,9 @@
           <t>Trip history loaders never recover from failures</t>
         </is>
       </c>
-      <c r="D462" s="6" t="inlineStr"/>
+      <c r="D462" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E462" s="6" t="inlineStr"/>
     </row>
     <row r="463">
@@ -7608,7 +8517,9 @@
           <t>Transaction ID display logic will crash on short UUIDs</t>
         </is>
       </c>
-      <c r="D463" s="6" t="inlineStr"/>
+      <c r="D463" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E463" s="6" t="inlineStr"/>
     </row>
     <row r="464">
@@ -7623,7 +8534,9 @@
           <t>Memory leak from Timer in advertisement widget</t>
         </is>
       </c>
-      <c r="D464" s="6" t="inlineStr"/>
+      <c r="D464" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E464" s="6" t="inlineStr"/>
     </row>
     <row r="465">
@@ -7638,7 +8551,9 @@
           <t>Dio timeout configuration insufficient for poor networks</t>
         </is>
       </c>
-      <c r="D465" s="6" t="inlineStr"/>
+      <c r="D465" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E465" s="6" t="inlineStr"/>
     </row>
     <row r="466">
@@ -7657,7 +8572,9 @@
           <t>Multiple TODO Comments Left in Production Code Incomplete Implementations Marked with TODO</t>
         </is>
       </c>
-      <c r="D466" s="6" t="inlineStr"/>
+      <c r="D466" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E466" s="6" t="inlineStr"/>
     </row>
     <row r="467">
@@ -7672,7 +8589,9 @@
           <t>Commented Out Code Blocks Large Blocks of Commented Code in Source Files</t>
         </is>
       </c>
-      <c r="D467" s="6" t="inlineStr"/>
+      <c r="D467" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E467" s="6" t="inlineStr"/>
     </row>
     <row r="468">
@@ -7687,7 +8606,9 @@
           <t>Magic Numbers Throughout Codebase Hardcoded Numeric Values Without Named Constants</t>
         </is>
       </c>
-      <c r="D468" s="6" t="inlineStr"/>
+      <c r="D468" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E468" s="6" t="inlineStr"/>
     </row>
     <row r="469">
@@ -7702,7 +8623,9 @@
           <t>Inconsistent Naming Conventions Mixed Naming Styles for Variables and Constants</t>
         </is>
       </c>
-      <c r="D469" s="6" t="inlineStr"/>
+      <c r="D469" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E469" s="6" t="inlineStr"/>
     </row>
     <row r="470">
@@ -7717,7 +8640,9 @@
           <t>Large Widget Build Methods Build Methods Exceeding 500 Lines</t>
         </is>
       </c>
-      <c r="D470" s="6" t="inlineStr"/>
+      <c r="D470" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E470" s="6" t="inlineStr"/>
     </row>
     <row r="471">
@@ -7732,7 +8657,9 @@
           <t>DateTime Not Using Server Time Synchronization Using Device Time for Business Logic</t>
         </is>
       </c>
-      <c r="D471" s="6" t="inlineStr"/>
+      <c r="D471" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E471" s="6" t="inlineStr"/>
     </row>
     <row r="472">
@@ -7747,7 +8674,9 @@
           <t>Multiple TODO Comments Left in Production Code</t>
         </is>
       </c>
-      <c r="D472" s="6" t="inlineStr"/>
+      <c r="D472" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E472" s="6" t="inlineStr"/>
     </row>
     <row r="473">
@@ -7762,7 +8691,9 @@
           <t>Commented Out Code Blocks</t>
         </is>
       </c>
-      <c r="D473" s="6" t="inlineStr"/>
+      <c r="D473" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E473" s="6" t="inlineStr"/>
     </row>
     <row r="474">
@@ -7777,7 +8708,9 @@
           <t>Magic Numbers Throughout Codebase</t>
         </is>
       </c>
-      <c r="D474" s="6" t="inlineStr"/>
+      <c r="D474" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E474" s="6" t="inlineStr"/>
     </row>
     <row r="475">
@@ -7792,7 +8725,9 @@
           <t>Empty Catch Blocks Swallowing Exceptions</t>
         </is>
       </c>
-      <c r="D475" s="6" t="inlineStr"/>
+      <c r="D475" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E475" s="6" t="inlineStr"/>
     </row>
     <row r="476">
@@ -7807,7 +8742,9 @@
           <t>Lack of Const Constructors</t>
         </is>
       </c>
-      <c r="D476" s="6" t="inlineStr"/>
+      <c r="D476" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E476" s="6" t="inlineStr"/>
     </row>
     <row r="477">
@@ -7822,7 +8759,9 @@
           <t>Large Widget Build Methods</t>
         </is>
       </c>
-      <c r="D477" s="6" t="inlineStr"/>
+      <c r="D477" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E477" s="6" t="inlineStr"/>
     </row>
     <row r="478">
@@ -7837,7 +8776,9 @@
           <t>DateTime Not Using Server Time Synchronization</t>
         </is>
       </c>
-      <c r="D478" s="6" t="inlineStr"/>
+      <c r="D478" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E478" s="6" t="inlineStr"/>
     </row>
     <row r="479">
@@ -7852,7 +8793,9 @@
           <t>Unused Import Statements Imported Packages Not Used in File</t>
         </is>
       </c>
-      <c r="D479" s="6" t="inlineStr"/>
+      <c r="D479" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E479" s="6" t="inlineStr"/>
     </row>
     <row r="480">
@@ -7867,7 +8810,9 @@
           <t>Missing Documentation Comments No Dartdoc Comments on Public APIs</t>
         </is>
       </c>
-      <c r="D480" s="6" t="inlineStr"/>
+      <c r="D480" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E480" s="6" t="inlineStr"/>
     </row>
     <row r="481">
@@ -7882,7 +8827,9 @@
           <t>Inconsistent File Naming Directory Name Typo and Inconsistent File Naming</t>
         </is>
       </c>
-      <c r="D481" s="6" t="inlineStr"/>
+      <c r="D481" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E481" s="6" t="inlineStr"/>
     </row>
     <row r="482">
@@ -7897,7 +8844,9 @@
           <t>Unused Variables and Parameters Variables Declared But Never Used</t>
         </is>
       </c>
-      <c r="D482" s="6" t="inlineStr"/>
+      <c r="D482" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E482" s="6" t="inlineStr"/>
     </row>
     <row r="483">
@@ -7912,7 +8861,9 @@
           <t>Inconsistent Async/Await Pattern Mixing `.then()` and `async/await` Styles</t>
         </is>
       </c>
-      <c r="D483" s="6" t="inlineStr"/>
+      <c r="D483" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E483" s="6" t="inlineStr"/>
     </row>
     <row r="484">
@@ -7927,7 +8878,9 @@
           <t>Unused Import Statements</t>
         </is>
       </c>
-      <c r="D484" s="6" t="inlineStr"/>
+      <c r="D484" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E484" s="6" t="inlineStr"/>
     </row>
     <row r="485">
@@ -7942,7 +8895,9 @@
           <t>Missing Documentation Comments</t>
         </is>
       </c>
-      <c r="D485" s="6" t="inlineStr"/>
+      <c r="D485" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E485" s="6" t="inlineStr"/>
     </row>
     <row r="486">
@@ -7957,7 +8912,9 @@
           <t>Inconsistent File Naming</t>
         </is>
       </c>
-      <c r="D486" s="6" t="inlineStr"/>
+      <c r="D486" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E486" s="6" t="inlineStr"/>
     </row>
     <row r="487">
@@ -7972,7 +8929,9 @@
           <t>Unused Variables and Parameters</t>
         </is>
       </c>
-      <c r="D487" s="6" t="inlineStr"/>
+      <c r="D487" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E487" s="6" t="inlineStr"/>
     </row>
     <row r="488">
@@ -7987,7 +8946,9 @@
           <t>Inconsistent Async/Await Pattern</t>
         </is>
       </c>
-      <c r="D488" s="6" t="inlineStr"/>
+      <c r="D488" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E488" s="6" t="inlineStr"/>
     </row>
   </sheetData>
